--- a/unisim_hist_match_manual.xlsx
+++ b/unisim_hist_match_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/marcelogarret_petrobras_com_br/Documents/Desktop/Mestrado/projeto_mestrado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3772" documentId="8_{15E181A0-D82B-4C74-ACFA-2FA61CD9EC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66FDCD69-E15A-49F8-9F8C-00E17A1E6204}"/>
+  <xr:revisionPtr revIDLastSave="3923" documentId="8_{15E181A0-D82B-4C74-ACFA-2FA61CD9EC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B18C299-8C0B-43A4-94F2-5C9F75137C15}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBM" sheetId="4" r:id="rId1"/>
@@ -1275,9 +1275,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1408,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1424,37 +1424,27 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2059,145 +2049,145 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>345.96375813000003</c:v>
+                  <c:v>230.64250542000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1268.5337798100002</c:v>
+                  <c:v>1153.2125271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2830.9507520100001</c:v>
+                  <c:v>2715.6294993000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4906.7333007900006</c:v>
+                  <c:v>4791.4120480800002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7585.1623959900007</c:v>
+                  <c:v>7469.8411432800003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11275.442482710001</c:v>
+                  <c:v>11160.121230000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16118.93509653</c:v>
+                  <c:v>16003.613843820001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21535.313933490001</c:v>
+                  <c:v>21419.99268078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28915.874106930001</c:v>
+                  <c:v>28800.552854220001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37397.566241730005</c:v>
+                  <c:v>37282.244989020001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47315.193974790003</c:v>
+                  <c:v>47199.872722079999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58475.31520479</c:v>
+                  <c:v>58359.993952080004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71852.580519149997</c:v>
+                  <c:v>71737.25926644</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87305.62838229</c:v>
+                  <c:v>87190.307129580004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104492.21507649</c:v>
+                  <c:v>104376.89382378</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>124558.11304803001</c:v>
+                  <c:v>124442.79179532001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>145092.73611123001</c:v>
+                  <c:v>144977.41485852</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>166542.48911528999</c:v>
+                  <c:v>166427.16786258001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>188222.88462477</c:v>
+                  <c:v>188107.56337206002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>207805.17734301</c:v>
+                  <c:v>207689.85609030002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230408.14287417001</c:v>
+                  <c:v>230292.82162146003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>254290.80230637002</c:v>
+                  <c:v>254175.48105366001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>281045.33293509</c:v>
+                  <c:v>280930.01168237999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>308722.43358549004</c:v>
+                  <c:v>308607.11233278003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>339167.24430093</c:v>
+                  <c:v>339051.92304821999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>371226.55255431001</c:v>
+                  <c:v>371111.2313016</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>403590.90412131004</c:v>
+                  <c:v>403475.58286860003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>438417.92243973003</c:v>
+                  <c:v>438302.60118702002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>473237.50067733001</c:v>
+                  <c:v>473122.17942462</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>510140.30154453003</c:v>
+                  <c:v>510024.98029182001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>547965.67243341007</c:v>
+                  <c:v>547850.3511807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>584213.74618845002</c:v>
+                  <c:v>584098.42493574007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>623653.61461527005</c:v>
+                  <c:v>623538.29336255998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>662267.63407107</c:v>
+                  <c:v>662152.31281836005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>702630.07251957001</c:v>
+                  <c:v>702514.75126686005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>742136.90167377004</c:v>
+                  <c:v>742021.58042106009</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>783421.91014395002</c:v>
+                  <c:v>783306.58889124007</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>825168.20362497005</c:v>
+                  <c:v>825052.88237226009</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>865791.04490217008</c:v>
+                  <c:v>865675.72364946001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>907998.62339403003</c:v>
+                  <c:v>907883.30214132008</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>949067.8695204301</c:v>
+                  <c:v>948952.54826772003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>991736.7330231301</c:v>
+                  <c:v>991621.41177042003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1034636.23903125</c:v>
+                  <c:v>1034520.9177785401</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1073384.17994181</c:v>
+                  <c:v>1073268.8586891</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1116514.3284553501</c:v>
+                  <c:v>1116399.0072026399</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1158476.3842801501</c:v>
+                  <c:v>1158361.0630274401</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1201837.1752991101</c:v>
+                  <c:v>1201721.8540464002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5875,145 +5865,145 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>0.34596375813000002</c:v>
+                  <c:v>0.23064250542000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2685337798100003</c:v>
+                  <c:v>1.1532125271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8309507520100001</c:v>
+                  <c:v>2.7156294993000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9067333007900009</c:v>
+                  <c:v>4.7914120480799998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5851623959900003</c:v>
+                  <c:v>7.46984114328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.275442482710002</c:v>
+                  <c:v>11.160121230000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.118935096529999</c:v>
+                  <c:v>16.003613843820002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.535313933490002</c:v>
+                  <c:v>21.419992680780002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.915874106930001</c:v>
+                  <c:v>28.800552854220001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.397566241730004</c:v>
+                  <c:v>37.282244989020001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.315193974790006</c:v>
+                  <c:v>47.199872722080002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.47531520479</c:v>
+                  <c:v>58.359993952080004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.852580519149996</c:v>
+                  <c:v>71.737259266440006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.305628382289996</c:v>
+                  <c:v>87.190307129580006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.49221507649</c:v>
+                  <c:v>104.37689382378001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>124.55811304803001</c:v>
+                  <c:v>124.44279179532001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>145.09273611123001</c:v>
+                  <c:v>144.97741485852001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>166.54248911528998</c:v>
+                  <c:v>166.42716786258001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>188.22288462476999</c:v>
+                  <c:v>188.10756337206001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>207.80517734301</c:v>
+                  <c:v>207.68985609030003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230.40814287417001</c:v>
+                  <c:v>230.29282162146004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>254.29080230637001</c:v>
+                  <c:v>254.17548105366001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>281.04533293509002</c:v>
+                  <c:v>280.93001168237998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>308.72243358549002</c:v>
+                  <c:v>308.60711233278005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>339.16724430093001</c:v>
+                  <c:v>339.05192304821998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>371.22655255430999</c:v>
+                  <c:v>371.11123130160001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>403.59090412131002</c:v>
+                  <c:v>403.47558286860004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>438.41792243973003</c:v>
+                  <c:v>438.30260118702</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>473.23750067732999</c:v>
+                  <c:v>473.12217942462001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>510.14030154453002</c:v>
+                  <c:v>510.02498029182004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>547.96567243341008</c:v>
+                  <c:v>547.85035118070005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>584.21374618845005</c:v>
+                  <c:v>584.09842493574001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>623.65361461527004</c:v>
+                  <c:v>623.53829336256001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>662.26763407107001</c:v>
+                  <c:v>662.15231281836009</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>702.63007251957004</c:v>
+                  <c:v>702.51475126686</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>742.13690167377001</c:v>
+                  <c:v>742.02158042106009</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>783.42191014395007</c:v>
+                  <c:v>783.30658889124004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>825.16820362497003</c:v>
+                  <c:v>825.05288237226011</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>865.79104490217003</c:v>
+                  <c:v>865.67572364946</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>907.99862339403001</c:v>
+                  <c:v>907.88330214132009</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>949.06786952043012</c:v>
+                  <c:v>948.95254826772009</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>991.73673302313011</c:v>
+                  <c:v>991.62141177042008</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1034.6362390312499</c:v>
+                  <c:v>1034.52091777854</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1073.3841799418099</c:v>
+                  <c:v>1073.2688586890999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1116.5143284553501</c:v>
+                  <c:v>1116.39900720264</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1158.4763842801501</c:v>
+                  <c:v>1158.3610630274402</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1201.8371752991102</c:v>
+                  <c:v>1201.7218540464003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10522,69 +10512,69 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
@@ -10598,27 +10588,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D181C58-2879-4C28-A913-427EE875788A}">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.54296875" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10687,7 +10677,7 @@
         <v>130286000</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>41425</v>
       </c>
@@ -10723,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <f>$Y$1*L2</f>
+        <f t="shared" ref="M2:M33" si="0">$Y$1*L2</f>
         <v>0</v>
       </c>
       <c r="N2" s="5">
@@ -10747,7 +10737,7 @@
       <c r="X2" t="s">
         <v>107</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2">
         <f>B2</f>
         <v>332</v>
       </c>
@@ -10759,12 +10749,12 @@
         <v>5.3000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>41455</v>
       </c>
       <c r="B3" s="7">
-        <v>331.5</v>
+        <v>332</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10793,11 +10783,11 @@
         <v>332</v>
       </c>
       <c r="L3" s="5">
-        <f>L2+($B$2-K3)*J3</f>
+        <f t="shared" ref="L3:L8" si="1">L2+($B$2-K3)*J3</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>$Y$1*L3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="5">
@@ -10808,7 +10798,7 @@
       </c>
       <c r="P3" s="7">
         <f>B3</f>
-        <v>331.5</v>
+        <v>332</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>18</v>
@@ -10830,7 +10820,7 @@
         <v>4.7599999999999998E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>41486</v>
       </c>
@@ -10864,24 +10854,24 @@
       </c>
       <c r="K4" s="6">
         <f>(B4+B3)/2</f>
-        <v>331.25</v>
+        <v>331.5</v>
       </c>
       <c r="L4" s="5">
-        <f>L3+($B$2-K4)*J4</f>
-        <v>23.25</v>
-      </c>
-      <c r="M4" s="14">
-        <f>$Y$1*L4</f>
-        <v>345.96375813000003</v>
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>230.64250542000002</v>
       </c>
       <c r="N4" s="5">
-        <v>34.480346971011784</v>
+        <v>26.77863009216793</v>
       </c>
       <c r="O4" s="7">
-        <v>551.68555153618854</v>
+        <v>398.47034426922693</v>
       </c>
       <c r="P4" s="7">
-        <v>330.27546148574118</v>
+        <v>330.27234644566585</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>93</v>
@@ -10900,7 +10890,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>41517</v>
       </c>
@@ -10937,16 +10927,16 @@
         <v>330</v>
       </c>
       <c r="L5" s="5">
-        <f>L4+($B$2-K5)*J5</f>
-        <v>85.25</v>
+        <f t="shared" si="1"/>
+        <v>77.5</v>
       </c>
       <c r="M5">
-        <f>$Y$1*L5</f>
-        <v>1268.5337798100002</v>
-      </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+        <f t="shared" si="0"/>
+        <v>1153.2125271</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
       <c r="U5" s="4"/>
       <c r="X5" t="s">
         <v>110</v>
@@ -10961,7 +10951,7 @@
         <v>210.3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>41547</v>
       </c>
@@ -10994,20 +10984,20 @@
         <v>30</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" ref="K6:K50" si="0">(B6+B5)/2</f>
+        <f t="shared" ref="K6:K50" si="2">(B6+B5)/2</f>
         <v>328.5</v>
       </c>
       <c r="L6" s="5">
-        <f>L5+($B$2-K6)*J6</f>
-        <v>190.25</v>
+        <f t="shared" si="1"/>
+        <v>182.5</v>
       </c>
       <c r="M6">
-        <f>$Y$1*L6</f>
-        <v>2830.9507520100001</v>
-      </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+        <f t="shared" si="0"/>
+        <v>2715.6294993000001</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
       <c r="R6" s="4" t="s">
         <v>31</v>
       </c>
@@ -11024,7 +11014,7 @@
         <v>1.3861224244000001</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>41578</v>
       </c>
@@ -11053,29 +11043,29 @@
         <v>90906.364903643786</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J50" si="1">H7-H6</f>
+        <f t="shared" ref="J7:J50" si="3">H7-H6</f>
         <v>31</v>
       </c>
       <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>327.5</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
-        <v>327.5</v>
-      </c>
-      <c r="L7" s="5">
-        <f>L6+($B$2-K7)*J7</f>
-        <v>329.75</v>
-      </c>
-      <c r="M7">
-        <f>$Y$1*L7</f>
-        <v>4906.7333007900006</v>
-      </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
+        <v>4791.4120480800002</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
       <c r="R7" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>41608</v>
       </c>
@@ -11108,20 +11098,20 @@
         <v>30</v>
       </c>
       <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>502</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
-        <v>326</v>
-      </c>
-      <c r="L8" s="5">
-        <f>L7+($B$2-K8)*J8</f>
-        <v>509.75</v>
-      </c>
-      <c r="M8">
-        <f>$Y$1*L8</f>
-        <v>7585.1623959900007</v>
-      </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+        <v>7469.8411432800003</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
       <c r="R8" s="4" t="s">
         <v>99</v>
       </c>
@@ -11129,7 +11119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>41639</v>
       </c>
@@ -11158,26 +11148,26 @@
         <v>122376.3633243817</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" ref="L9:L50" si="4">L8+($B$2-K9)*J9</f>
+        <v>750</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>324</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" ref="L6:N50" si="2">L8+($B$2-K9)*J9</f>
-        <v>757.75</v>
-      </c>
-      <c r="M9">
-        <f>$Y$1*L9</f>
-        <v>11275.442482710001</v>
-      </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>11160.121230000001</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>41670</v>
       </c>
@@ -11206,32 +11196,32 @@
         <v>113517.5504646811</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>321.5</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="4"/>
+        <v>1075.5</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>321.5</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="2"/>
-        <v>1083.25</v>
-      </c>
-      <c r="M10">
-        <f>$Y$1*L10</f>
-        <v>16118.93509653</v>
-      </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="R10" s="18" t="s">
+        <v>16003.613843820001</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="R10" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="S10" s="19">
-        <v>330.27546148574118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S10" s="18">
+        <v>330.27234644566585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>41698</v>
       </c>
@@ -11260,39 +11250,39 @@
         <v>142203.5251310271</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="4"/>
+        <v>1439.5</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>319</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="2"/>
-        <v>1447.25</v>
-      </c>
-      <c r="M11">
-        <f>$Y$1*L11</f>
-        <v>21535.313933490001</v>
-      </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="R11" s="20" t="s">
+        <v>21419.99268078</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="R11" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="20">
         <f>Y1*S13</f>
-        <v>513.07313633193974</v>
+        <v>398.47034426941048</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>41729</v>
       </c>
@@ -11321,33 +11311,33 @@
         <v>166948.86488772431</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="4"/>
+        <v>1935.5</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>316</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="2"/>
-        <v>1943.25</v>
-      </c>
-      <c r="M12">
-        <f>$Y$1*L12</f>
-        <v>28915.874106930001</v>
-      </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
+        <v>28800.552854220001</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
       <c r="R12" t="s">
         <v>6</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="16">
         <f>(S10+P3)/2</f>
-        <v>330.88773074287059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <v>331.13617322283289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>41759</v>
       </c>
@@ -11376,33 +11366,33 @@
         <v>203231.0780829337</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="4"/>
+        <v>2505.5</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
-        <v>313</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="2"/>
-        <v>2513.25</v>
-      </c>
-      <c r="M13">
-        <f>$Y$1*L13</f>
-        <v>37397.566241730005</v>
-      </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+        <v>37282.244989020001</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
       <c r="R13" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="16">
         <f>N3+($B$2-S12)*J4</f>
-        <v>34.480346971011784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+        <v>26.778630092180265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>41790</v>
       </c>
@@ -11431,42 +11421,42 @@
         <v>188484.02867767381</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>310.5</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="4"/>
+        <v>3172</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
-        <v>310.5</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="2"/>
-        <v>3179.75</v>
-      </c>
-      <c r="M14">
-        <f>$Y$1*L14</f>
-        <v>47315.193974790003</v>
-      </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="R14" s="20" t="s">
+        <v>47199.872722079999</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="R14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="20">
         <f>S17-AB1*(S18+S19)</f>
-        <v>551.68555160616233</v>
+        <v>398.47034420359705</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="V14" s="15" t="s">
+      <c r="V14" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AH14" s="15" t="s">
+      <c r="AH14" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>41820</v>
       </c>
@@ -11495,36 +11485,36 @@
         <v>203829.66553335331</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="4"/>
+        <v>3922</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>307</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="2"/>
-        <v>3929.75</v>
-      </c>
-      <c r="M15">
-        <f>$Y$1*L15</f>
-        <v>58475.31520479</v>
-      </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+        <v>58359.993952080004</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
       <c r="R15" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="15">
         <f>Y3+Y4*Y3*(AB5-S10)</f>
-        <v>1.3865174609883841</v>
+        <v>1.3865181745443842</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>41851</v>
       </c>
@@ -11553,36 +11543,36 @@
         <v>227894.28514410419</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="4"/>
+        <v>4821</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="0"/>
-        <v>303</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="2"/>
-        <v>4828.75</v>
-      </c>
-      <c r="M16">
-        <f>$Y$1*L16</f>
-        <v>71852.580519149997</v>
-      </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+        <v>71737.25926644</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
       <c r="R16" t="s">
         <v>119</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="15">
         <f>1.40676*S10^(-1.04229)</f>
-        <v>3.3328857302762243E-3</v>
+        <v>3.3329184945471105E-3</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>41882</v>
       </c>
@@ -11611,36 +11601,36 @@
         <v>281480.01901173848</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K17" s="6">
+        <f t="shared" si="2"/>
+        <v>298.5</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="4"/>
+        <v>5859.5</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="0"/>
-        <v>298.5</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="2"/>
-        <v>5867.25</v>
-      </c>
-      <c r="M17">
-        <f>$Y$1*L17</f>
-        <v>87305.62838229</v>
-      </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+        <v>87190.307129580004</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
       <c r="R17" t="s">
         <v>54</v>
       </c>
       <c r="S17" s="5">
         <f>C4*(S15+(G4-Y5)*S16)+E4*Y6</f>
-        <v>85396.042307691911</v>
+        <v>85396.081764824601</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>41912</v>
       </c>
@@ -11669,36 +11659,36 @@
         <v>313034.51715736109</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K18" s="6">
+        <f t="shared" si="2"/>
+        <v>293.5</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="4"/>
+        <v>7014.5</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="0"/>
-        <v>293.5</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="2"/>
-        <v>7022.25</v>
-      </c>
-      <c r="M18">
-        <f>$Y$1*L18</f>
-        <v>104492.21507649</v>
-      </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+        <v>104376.89382378</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
       <c r="R18" t="s">
         <v>55</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="15">
         <f>S15-AB6</f>
-        <v>3.9503658838402345E-4</v>
+        <v>3.9575014438408829E-4</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>41943</v>
       </c>
@@ -11727,36 +11717,36 @@
         <v>343937.7062259228</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>288.5</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="4"/>
+        <v>8363</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="0"/>
-        <v>288.5</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="2"/>
-        <v>8370.75</v>
-      </c>
-      <c r="M19">
-        <f>$Y$1*L19</f>
-        <v>124558.11304803001</v>
-      </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
+        <v>124442.79179532001</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
       <c r="R19" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="16">
+      <c r="S19" s="15">
         <f>AB6*((AB2+AB3*AB4)/(1-AB4))*(Y2-S10)</f>
-        <v>2.5617963405035734E-4</v>
+        <v>2.5664237223796632E-4</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>41973</v>
       </c>
@@ -11785,33 +11775,33 @@
         <v>343937.7062259228</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K20" s="6">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="4"/>
+        <v>9743</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="2"/>
-        <v>9750.75</v>
-      </c>
-      <c r="M20">
-        <f>$Y$1*L20</f>
-        <v>145092.73611123001</v>
-      </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="R20" s="22" t="s">
+        <v>144977.41485852</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="R20" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="22">
         <f>S14-S11</f>
-        <v>38.612415274222599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-6.5813424043881241E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>42004</v>
       </c>
@@ -11840,26 +11830,26 @@
         <v>295147.80728750769</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K21" s="6">
+        <f t="shared" si="2"/>
+        <v>285.5</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="4"/>
+        <v>11184.5</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="0"/>
-        <v>285.5</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="2"/>
-        <v>11192.25</v>
-      </c>
-      <c r="M21">
-        <f>$Y$1*L21</f>
-        <v>166542.48911528999</v>
-      </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>166427.16786258001</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>42035</v>
       </c>
@@ -11888,26 +11878,26 @@
         <v>295147.80728750769</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K22" s="6">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="4"/>
+        <v>12641.5</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="2"/>
-        <v>12649.25</v>
-      </c>
-      <c r="M22">
-        <f>$Y$1*L22</f>
-        <v>188222.88462477</v>
-      </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>188107.56337206002</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>42063</v>
       </c>
@@ -11936,26 +11926,26 @@
         <v>295147.80728750769</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="K23" s="6">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="4"/>
+        <v>13957.5</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="2"/>
-        <v>13965.25</v>
-      </c>
-      <c r="M23">
-        <f>$Y$1*L23</f>
-        <v>207805.17734301</v>
-      </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>207689.85609030002</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>42094</v>
       </c>
@@ -11984,26 +11974,26 @@
         <v>372409.39283608738</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="4"/>
+        <v>15476.5</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="0"/>
-        <v>283</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="2"/>
-        <v>15484.25</v>
-      </c>
-      <c r="M24">
-        <f>$Y$1*L24</f>
-        <v>230408.14287417001</v>
-      </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>230292.82162146003</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>42124</v>
       </c>
@@ -12032,26 +12022,26 @@
         <v>374550.52909396117</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K25" s="6">
+        <f t="shared" si="2"/>
+        <v>278.5</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="4"/>
+        <v>17081.5</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="0"/>
-        <v>278.5</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="2"/>
-        <v>17089.25</v>
-      </c>
-      <c r="M25">
-        <f>$Y$1*L25</f>
-        <v>254290.80230637002</v>
-      </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>254175.48105366001</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>42155</v>
       </c>
@@ -12080,26 +12070,26 @@
         <v>413077.95990815712</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K26" s="6">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="4"/>
+        <v>18879.5</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="2"/>
-        <v>18887.25</v>
-      </c>
-      <c r="M26">
-        <f>$Y$1*L26</f>
-        <v>281045.33293509</v>
-      </c>
-      <c r="N26" s="24"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>280930.01168237999</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>42185</v>
       </c>
@@ -12128,26 +12118,26 @@
         <v>430979.08549255319</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K27" s="6">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="4"/>
+        <v>20739.5</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" si="2"/>
-        <v>20747.25</v>
-      </c>
-      <c r="M27">
-        <f>$Y$1*L27</f>
-        <v>308722.43358549004</v>
-      </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>308607.11233278003</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>42216</v>
       </c>
@@ -12176,26 +12166,26 @@
         <v>440508.43910889467</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K28" s="6">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="4"/>
+        <v>22785.5</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="0"/>
-        <v>266</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="2"/>
-        <v>22793.25</v>
-      </c>
-      <c r="M28">
-        <f>$Y$1*L28</f>
-        <v>339167.24430093</v>
-      </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>339051.92304821999</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>42247</v>
       </c>
@@ -12224,26 +12214,26 @@
         <v>477361.46838374389</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K29" s="6">
+        <f t="shared" si="2"/>
+        <v>262.5</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="4"/>
+        <v>24940</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="0"/>
-        <v>262.5</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="2"/>
-        <v>24947.75</v>
-      </c>
-      <c r="M29">
-        <f>$Y$1*L29</f>
-        <v>371226.55255431001</v>
-      </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>371111.2313016</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>42277</v>
       </c>
@@ -12272,26 +12262,26 @@
         <v>490145.66499025002</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K30" s="6">
+        <f t="shared" si="2"/>
+        <v>259.5</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="4"/>
+        <v>27115</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="0"/>
-        <v>259.5</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="2"/>
-        <v>27122.75</v>
-      </c>
-      <c r="M30">
-        <f>$Y$1*L30</f>
-        <v>403590.90412131004</v>
-      </c>
-      <c r="N30" s="24"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>403475.58286860003</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>42308</v>
       </c>
@@ -12320,26 +12310,26 @@
         <v>492906.72321968112</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K31" s="6">
+        <f t="shared" si="2"/>
+        <v>256.5</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="4"/>
+        <v>29455.5</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="0"/>
-        <v>256.5</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="2"/>
-        <v>29463.25</v>
-      </c>
-      <c r="M31">
-        <f>$Y$1*L31</f>
-        <v>438417.92243973003</v>
-      </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>438302.60118702002</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>42338</v>
       </c>
@@ -12368,26 +12358,26 @@
         <v>520455.14114960929</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K32" s="6">
+        <f t="shared" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="4"/>
+        <v>31795.5</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="0"/>
-        <v>254</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="2"/>
-        <v>31803.25</v>
-      </c>
-      <c r="M32">
-        <f>$Y$1*L32</f>
-        <v>473237.50067733001</v>
-      </c>
-      <c r="N32" s="24"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>473122.17942462</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>42369</v>
       </c>
@@ -12416,26 +12406,26 @@
         <v>547832.725670252</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K33" s="6">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="4"/>
+        <v>34275.5</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="L33" s="5">
-        <f t="shared" si="2"/>
-        <v>34283.25</v>
-      </c>
-      <c r="M33">
-        <f>$Y$1*L33</f>
-        <v>510140.30154453003</v>
-      </c>
-      <c r="N33" s="24"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>510024.98029182001</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>42400</v>
       </c>
@@ -12464,26 +12454,26 @@
         <v>561596.73962360946</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="2"/>
-        <v>36825.25</v>
+        <f t="shared" si="4"/>
+        <v>36817.5</v>
       </c>
       <c r="M34">
-        <f>$Y$1*L34</f>
-        <v>547965.67243341007</v>
-      </c>
-      <c r="N34" s="24"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M34:M50" si="5">$Y$1*L34</f>
+        <v>547850.3511807</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>42429</v>
       </c>
@@ -12512,26 +12502,26 @@
         <v>558106.80586574459</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>248</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="2"/>
-        <v>39261.25</v>
+        <f t="shared" si="4"/>
+        <v>39253.5</v>
       </c>
       <c r="M35">
-        <f>$Y$1*L35</f>
-        <v>584213.74618845002</v>
-      </c>
-      <c r="N35" s="24"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>584098.42493574007</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>42460</v>
       </c>
@@ -12560,26 +12550,26 @@
         <v>603416.09836924355</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>246.5</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="2"/>
-        <v>41911.75</v>
+        <f t="shared" si="4"/>
+        <v>41904</v>
       </c>
       <c r="M36">
-        <f>$Y$1*L36</f>
-        <v>623653.61461527005</v>
-      </c>
-      <c r="N36" s="24"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>623538.29336255998</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>42490</v>
       </c>
@@ -12608,26 +12598,26 @@
         <v>643845.99340117723</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245.5</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="2"/>
-        <v>44506.75</v>
+        <f t="shared" si="4"/>
+        <v>44499</v>
       </c>
       <c r="M37">
-        <f>$Y$1*L37</f>
-        <v>662267.63407107</v>
-      </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>662152.31281836005</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42521</v>
       </c>
@@ -12656,26 +12646,26 @@
         <v>680532.40501855407</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>244.5</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="2"/>
-        <v>47219.25</v>
+        <f t="shared" si="4"/>
+        <v>47211.5</v>
       </c>
       <c r="M38">
-        <f>$Y$1*L38</f>
-        <v>702630.07251957001</v>
-      </c>
-      <c r="N38" s="24"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>702514.75126686005</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>42551</v>
       </c>
@@ -12704,26 +12694,26 @@
         <v>711807.91382285859</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>243.5</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="2"/>
-        <v>49874.25</v>
+        <f t="shared" si="4"/>
+        <v>49866.5</v>
       </c>
       <c r="M39">
-        <f>$Y$1*L39</f>
-        <v>742136.90167377004</v>
-      </c>
-      <c r="N39" s="24"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>742021.58042106009</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>42582</v>
       </c>
@@ -12752,26 +12742,26 @@
         <v>739883.92062762845</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>242.5</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="2"/>
-        <v>52648.75</v>
+        <f t="shared" si="4"/>
+        <v>52641</v>
       </c>
       <c r="M40">
-        <f>$Y$1*L40</f>
-        <v>783421.91014395002</v>
-      </c>
-      <c r="N40" s="24"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>783306.58889124007</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>42613</v>
       </c>
@@ -12800,26 +12790,26 @@
         <v>767867.08950338513</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>241.5</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="2"/>
-        <v>55454.25</v>
+        <f t="shared" si="4"/>
+        <v>55446.5</v>
       </c>
       <c r="M41">
-        <f>$Y$1*L41</f>
-        <v>825168.20362497005</v>
-      </c>
-      <c r="N41" s="24"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>825052.88237226009</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>42643</v>
       </c>
@@ -12848,26 +12838,26 @@
         <v>836876.46968152374</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>241</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="2"/>
-        <v>58184.25</v>
+        <f t="shared" si="4"/>
+        <v>58176.5</v>
       </c>
       <c r="M42">
-        <f>$Y$1*L42</f>
-        <v>865791.04490217008</v>
-      </c>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>865675.72364946001</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42674</v>
       </c>
@@ -12896,26 +12886,26 @@
         <v>858111.2919415487</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>240.5</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="2"/>
-        <v>61020.75</v>
+        <f t="shared" si="4"/>
+        <v>61013</v>
       </c>
       <c r="M43">
-        <f>$Y$1*L43</f>
-        <v>907998.62339403003</v>
-      </c>
-      <c r="N43" s="24"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>907883.30214132008</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42704</v>
       </c>
@@ -12944,26 +12934,26 @@
         <v>923625.54732949287</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="2"/>
-        <v>63780.75</v>
+        <f t="shared" si="4"/>
+        <v>63773</v>
       </c>
       <c r="M44">
-        <f>$Y$1*L44</f>
-        <v>949067.8695204301</v>
-      </c>
-      <c r="N44" s="24"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>948952.54826772003</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42735</v>
       </c>
@@ -12992,26 +12982,26 @@
         <v>939858.27165826131</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>239.5</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="2"/>
-        <v>66648.25</v>
+        <f t="shared" si="4"/>
+        <v>66640.5</v>
       </c>
       <c r="M45">
-        <f>$Y$1*L45</f>
-        <v>991736.7330231301</v>
-      </c>
-      <c r="N45" s="24"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>991621.41177042003</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42766</v>
       </c>
@@ -13040,26 +13030,26 @@
         <v>997285.17725201603</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>239</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="2"/>
-        <v>69531.25</v>
+        <f t="shared" si="4"/>
+        <v>69523.5</v>
       </c>
       <c r="M46">
-        <f>$Y$1*L46</f>
-        <v>1034636.23903125</v>
-      </c>
-      <c r="N46" s="24"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1034520.9177785401</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42794</v>
       </c>
@@ -13088,26 +13078,26 @@
         <v>1046777.559976481</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>239</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="2"/>
-        <v>72135.25</v>
+        <f t="shared" si="4"/>
+        <v>72127.5</v>
       </c>
       <c r="M47">
-        <f>$Y$1*L47</f>
-        <v>1073384.17994181</v>
-      </c>
-      <c r="N47" s="24"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1073268.8586891</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>42825</v>
       </c>
@@ -13136,26 +13126,26 @@
         <v>1058908.830277056</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>238.5</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="2"/>
-        <v>75033.75</v>
+        <f t="shared" si="4"/>
+        <v>75026</v>
       </c>
       <c r="M48">
-        <f>$Y$1*L48</f>
-        <v>1116514.3284553501</v>
-      </c>
-      <c r="N48" s="24"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1116399.0072026399</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>42855</v>
       </c>
@@ -13184,26 +13174,26 @@
         <v>1116418.475525748</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="2"/>
-        <v>77853.75</v>
+        <f t="shared" si="4"/>
+        <v>77846</v>
       </c>
       <c r="M49">
-        <f>$Y$1*L49</f>
-        <v>1158476.3842801501</v>
-      </c>
-      <c r="N49" s="24"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1158361.0630274401</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>42886</v>
       </c>
@@ -13232,27 +13222,27 @@
         <v>1173723.616129026</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="2"/>
-        <v>80767.75</v>
+        <f t="shared" si="4"/>
+        <v>80760</v>
       </c>
       <c r="M50">
-        <f>$Y$1*L50</f>
-        <v>1201837.1752991101</v>
-      </c>
-      <c r="N50" s="24"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
+        <f t="shared" si="5"/>
+        <v>1201721.8540464002</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N51" s="5"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
@@ -13280,14 +13270,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13325,7 +13315,7 @@
       </c>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>41425</v>
       </c>
@@ -13367,7 +13357,7 @@
       </c>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>41455</v>
       </c>
@@ -13389,11 +13379,11 @@
         <v>332</v>
       </c>
       <c r="G3" s="5">
-        <f>G2+($B$2-F3)*E3/LN($Q$2*C3)</f>
+        <f t="shared" ref="G3:G50" si="0">G2+($B$2-F3)*E3/LN($Q$2*C3)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H50" si="0">$Q$1*G3</f>
+        <f t="shared" ref="H3:H50" si="1">$Q$1*G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -13403,7 +13393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>41486</v>
       </c>
@@ -13425,16 +13415,16 @@
         <v>331.25</v>
       </c>
       <c r="G4" s="5">
-        <f>G3+($B$2-F4)*E4/LN($Q$2*C4)</f>
+        <f t="shared" si="0"/>
         <v>-35.014015049800157</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-823.65775375376836</v>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>41517</v>
       </c>
@@ -13456,16 +13446,16 @@
         <v>330</v>
       </c>
       <c r="G5" s="5">
-        <f>G4+($B$2-F5)*E5/LN($Q$2*C5)</f>
+        <f t="shared" si="0"/>
         <v>-279.97153684960762</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6585.9549905532576</v>
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>41547</v>
       </c>
@@ -13483,19 +13473,19 @@
         <v>30</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:F50" si="1">(B6+B5)/2</f>
+        <f t="shared" ref="F6:F50" si="2">(B6+B5)/2</f>
         <v>328.5</v>
       </c>
       <c r="G6" s="5">
-        <f>G5+($B$2-F6)*E6/LN($Q$2*C6)</f>
+        <f t="shared" si="0"/>
         <v>3324.8866096854927</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78213.499152396282</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>41578</v>
       </c>
@@ -13509,23 +13499,23 @@
         <v>90906.364903643786</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E50" si="2">C7-C6</f>
+        <f t="shared" ref="E7:E50" si="3">C7-C6</f>
         <v>31</v>
       </c>
       <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>327.5</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>3870.7803538473681</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>327.5</v>
-      </c>
-      <c r="G7" s="5">
-        <f>G6+($B$2-F7)*E7/LN($Q$2*C7)</f>
-        <v>3870.7803538473681</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
         <v>91054.917494882859</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>41608</v>
       </c>
@@ -13539,23 +13529,23 @@
         <v>74137.211822990444</v>
       </c>
       <c r="E8">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F8" s="6">
+        <v>326</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>4284.9614851875212</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>326</v>
-      </c>
-      <c r="G8" s="5">
-        <f>G7+($B$2-F8)*E8/LN($Q$2*C8)</f>
-        <v>4284.9614851875212</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
         <v>100797.97323418094</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>41639</v>
       </c>
@@ -13569,23 +13559,23 @@
         <v>122376.3633243817</v>
       </c>
       <c r="E9">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F9" s="6">
+        <v>324</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>4704.530786122863</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="G9" s="5">
-        <f>G8+($B$2-F9)*E9/LN($Q$2*C9)</f>
-        <v>4704.530786122863</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
         <v>110667.77843820924</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>41670</v>
       </c>
@@ -13599,23 +13589,23 @@
         <v>113517.5504646811</v>
       </c>
       <c r="E10">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F10" s="6">
+        <v>321.5</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>5152.6528908726332</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>321.5</v>
-      </c>
-      <c r="G10" s="5">
-        <f>G9+($B$2-F10)*E10/LN($Q$2*C10)</f>
-        <v>5152.6528908726332</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
         <v>121209.25006551732</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>41698</v>
       </c>
@@ -13629,23 +13619,23 @@
         <v>142203.5251310271</v>
       </c>
       <c r="E11">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="F11" s="6">
+        <v>319</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>5588.8014017914375</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>319</v>
-      </c>
-      <c r="G11" s="5">
-        <f>G10+($B$2-F11)*E11/LN($Q$2*C11)</f>
-        <v>5588.8014017914375</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
         <v>131469.05895334389</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>41729</v>
       </c>
@@ -13659,23 +13649,23 @@
         <v>166948.86488772431</v>
       </c>
       <c r="E12">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F12" s="6">
+        <v>316</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>6115.2657809199336</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>316</v>
-      </c>
-      <c r="G12" s="5">
-        <f>G11+($B$2-F12)*E12/LN($Q$2*C12)</f>
-        <v>6115.2657809199336</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
         <v>143853.4275362558</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>41759</v>
       </c>
@@ -13689,23 +13679,23 @@
         <v>203231.0780829337</v>
       </c>
       <c r="E13">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F13" s="6">
+        <v>313</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>6665.3275235325327</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>313</v>
-      </c>
-      <c r="G13" s="5">
-        <f>G12+($B$2-F13)*E13/LN($Q$2*C13)</f>
-        <v>6665.3275235325327</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
         <v>156792.89245342652</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>41790</v>
       </c>
@@ -13719,23 +13709,23 @@
         <v>188484.02867767381</v>
       </c>
       <c r="E14">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F14" s="6">
+        <v>310.5</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>7257.7700360474682</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>310.5</v>
-      </c>
-      <c r="G14" s="5">
-        <f>G13+($B$2-F14)*E14/LN($Q$2*C14)</f>
-        <v>7257.7700360474682</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
         <v>170729.30815417535</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>41820</v>
       </c>
@@ -13749,23 +13739,23 @@
         <v>203829.66553335331</v>
       </c>
       <c r="E15">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F15" s="6">
+        <v>307</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>7880.6977218054235</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>307</v>
-      </c>
-      <c r="G15" s="5">
-        <f>G14+($B$2-F15)*E15/LN($Q$2*C15)</f>
-        <v>7880.6977218054235</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
         <v>185382.84667789741</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>41851</v>
       </c>
@@ -13779,23 +13769,23 @@
         <v>227894.28514410419</v>
       </c>
       <c r="E16">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F16" s="6">
+        <v>303</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>8583.2908587414968</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>303</v>
-      </c>
-      <c r="G16" s="5">
-        <f>G15+($B$2-F16)*E16/LN($Q$2*C16)</f>
-        <v>8583.2908587414968</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
         <v>201910.40811718121</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>41882</v>
       </c>
@@ -13809,23 +13799,23 @@
         <v>281480.01901173848</v>
       </c>
       <c r="E17">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F17" s="6">
+        <v>298.5</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>9352.6699668127076</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>298.5</v>
-      </c>
-      <c r="G17" s="5">
-        <f>G16+($B$2-F17)*E17/LN($Q$2*C17)</f>
-        <v>9352.6699668127076</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
         <v>220009.01997411044</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>41912</v>
       </c>
@@ -13839,23 +13829,23 @@
         <v>313034.51715736109</v>
       </c>
       <c r="E18">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F18" s="6">
+        <v>293.5</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>10169.865493819605</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>293.5</v>
-      </c>
-      <c r="G18" s="5">
-        <f>G17+($B$2-F18)*E18/LN($Q$2*C18)</f>
-        <v>10169.865493819605</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
         <v>239232.44896946553</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>41943</v>
       </c>
@@ -13869,23 +13859,23 @@
         <v>343937.7062259228</v>
       </c>
       <c r="E19">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F19" s="6">
+        <v>288.5</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>11084.052233779119</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
-        <v>288.5</v>
-      </c>
-      <c r="G19" s="5">
-        <f>G18+($B$2-F19)*E19/LN($Q$2*C19)</f>
-        <v>11084.052233779119</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
         <v>260737.46619401348</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>41973</v>
       </c>
@@ -13899,23 +13889,23 @@
         <v>343937.7062259228</v>
       </c>
       <c r="E20">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F20" s="6">
+        <v>286</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>11985.199275280678</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="1"/>
-        <v>286</v>
-      </c>
-      <c r="G20" s="5">
-        <f>G19+($B$2-F20)*E20/LN($Q$2*C20)</f>
-        <v>11985.199275280678</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
         <v>281935.74199726974</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>42004</v>
       </c>
@@ -13929,23 +13919,23 @@
         <v>295147.80728750769</v>
       </c>
       <c r="E21">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F21" s="6">
+        <v>285.5</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>12893.855358601704</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
-        <v>285.5</v>
-      </c>
-      <c r="G21" s="5">
-        <f>G20+($B$2-F21)*E21/LN($Q$2*C21)</f>
-        <v>12893.855358601704</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
         <v>303310.65794045472</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>42035</v>
       </c>
@@ -13959,23 +13949,23 @@
         <v>295147.80728750769</v>
       </c>
       <c r="E22">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F22" s="6">
+        <v>285</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>13783.047888648494</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
-      <c r="G22" s="5">
-        <f>G21+($B$2-F22)*E22/LN($Q$2*C22)</f>
-        <v>13783.047888648494</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
         <v>324227.71989154193</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>42063</v>
       </c>
@@ -13989,23 +13979,23 @@
         <v>295147.80728750769</v>
       </c>
       <c r="E23">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="F23" s="6">
+        <v>285</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>14564.778396025207</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
-      <c r="G23" s="5">
-        <f>G22+($B$2-F23)*E23/LN($Q$2*C23)</f>
-        <v>14564.778396025207</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
         <v>342616.88185514178</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>42094</v>
       </c>
@@ -14019,23 +14009,23 @@
         <v>372409.39283608738</v>
       </c>
       <c r="E24">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F24" s="6">
+        <v>283</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>15442.361414471827</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="1"/>
-        <v>283</v>
-      </c>
-      <c r="G24" s="5">
-        <f>G23+($B$2-F24)*E24/LN($Q$2*C24)</f>
-        <v>15442.361414471827</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
         <v>363260.84561302903</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>42124</v>
       </c>
@@ -14049,23 +14039,23 @@
         <v>374550.52909396117</v>
       </c>
       <c r="E25">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F25" s="6">
+        <v>278.5</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>16346.710544096921</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="1"/>
-        <v>278.5</v>
-      </c>
-      <c r="G25" s="5">
-        <f>G24+($B$2-F25)*E25/LN($Q$2*C25)</f>
-        <v>16346.710544096921</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
         <v>384534.44624571147</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>42155</v>
       </c>
@@ -14079,23 +14069,23 @@
         <v>413077.95990815712</v>
       </c>
       <c r="E26">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F26" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F26" s="6">
+        <v>274</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>17335.627388292745</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="1"/>
-        <v>274</v>
-      </c>
-      <c r="G26" s="5">
-        <f>G25+($B$2-F26)*E26/LN($Q$2*C26)</f>
-        <v>17335.627388292745</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
         <v>407797.38896682189</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>42185</v>
       </c>
@@ -14109,23 +14099,23 @@
         <v>430979.08549255319</v>
       </c>
       <c r="E27">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F27" s="6">
+        <v>270</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>18336.475015686348</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="G27" s="5">
-        <f>G26+($B$2-F27)*E27/LN($Q$2*C27)</f>
-        <v>18336.475015686348</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
         <v>431340.98736467282</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>42216</v>
       </c>
@@ -14139,23 +14129,23 @@
         <v>440508.43910889467</v>
       </c>
       <c r="E28">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F28" s="6">
+        <v>266</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>19414.222268249217</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-      <c r="G28" s="5">
-        <f>G27+($B$2-F28)*E28/LN($Q$2*C28)</f>
-        <v>19414.222268249217</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
         <v>456693.54632992332</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>42247</v>
       </c>
@@ -14169,23 +14159,23 @@
         <v>477361.46838374389</v>
       </c>
       <c r="E29">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F29" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F29" s="6">
+        <v>262.5</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>20526.597341000401</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="1"/>
-        <v>262.5</v>
-      </c>
-      <c r="G29" s="5">
-        <f>G28+($B$2-F29)*E29/LN($Q$2*C29)</f>
-        <v>20526.597341000401</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
         <v>482860.67833265988</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>42277</v>
       </c>
@@ -14199,23 +14189,23 @@
         <v>490145.66499025002</v>
       </c>
       <c r="E30">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F30" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F30" s="6">
+        <v>259.5</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>21629.151146584067</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="1"/>
-        <v>259.5</v>
-      </c>
-      <c r="G30" s="5">
-        <f>G29+($B$2-F30)*E30/LN($Q$2*C30)</f>
-        <v>21629.151146584067</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
         <v>508796.77819461771</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>42308</v>
       </c>
@@ -14229,23 +14219,23 @@
         <v>492906.72321968112</v>
       </c>
       <c r="E31">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F31" s="6">
+        <v>256.5</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>22794.488367108177</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="1"/>
-        <v>256.5</v>
-      </c>
-      <c r="G31" s="5">
-        <f>G30+($B$2-F31)*E31/LN($Q$2*C31)</f>
-        <v>22794.488367108177</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
         <v>536209.77370676841</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>42338</v>
       </c>
@@ -14259,23 +14249,23 @@
         <v>520455.14114960929</v>
       </c>
       <c r="E32">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F32" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F32" s="6">
+        <v>254</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>23940.512288572383</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="1"/>
-        <v>254</v>
-      </c>
-      <c r="G32" s="5">
-        <f>G31+($B$2-F32)*E32/LN($Q$2*C32)</f>
-        <v>23940.512288572383</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
         <v>563168.44975573756</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>42369</v>
       </c>
@@ -14289,23 +14279,23 @@
         <v>547832.725670252</v>
       </c>
       <c r="E33">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F33" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F33" s="6">
+        <v>252</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>25135.559119488502</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="G33" s="5">
-        <f>G32+($B$2-F33)*E33/LN($Q$2*C33)</f>
-        <v>25135.559119488502</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
         <v>591280.32401474367</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>42400</v>
       </c>
@@ -14319,23 +14309,23 @@
         <v>561596.73962360946</v>
       </c>
       <c r="E34">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F34" s="6">
+        <v>250</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>26341.702506352296</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="G34" s="5">
-        <f>G33+($B$2-F34)*E34/LN($Q$2*C34)</f>
-        <v>26341.702506352296</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
         <v>619653.22987304698</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>42429</v>
       </c>
@@ -14349,23 +14339,23 @@
         <v>558106.80586574459</v>
       </c>
       <c r="E35">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="F35" s="6">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="F35" s="6">
+        <v>248</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="0"/>
+        <v>27481.696365838026</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="1"/>
-        <v>248</v>
-      </c>
-      <c r="G35" s="5">
-        <f>G34+($B$2-F35)*E35/LN($Q$2*C35)</f>
-        <v>27481.696365838026</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
         <v>646470.05679968256</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>42460</v>
       </c>
@@ -14379,23 +14369,23 @@
         <v>603416.09836924355</v>
       </c>
       <c r="E36">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F36" s="6">
+        <v>246.5</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>28704.667447193839</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="1"/>
-        <v>246.5</v>
-      </c>
-      <c r="G36" s="5">
-        <f>G35+($B$2-F36)*E36/LN($Q$2*C36)</f>
-        <v>28704.667447193839</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
         <v>675238.81160665513</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>42490</v>
       </c>
@@ -14409,23 +14399,23 @@
         <v>643845.99340117723</v>
       </c>
       <c r="E37">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F37" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F37" s="6">
+        <v>245.5</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="0"/>
+        <v>29886.449481643172</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="1"/>
-        <v>245.5</v>
-      </c>
-      <c r="G37" s="5">
-        <f>G36+($B$2-F37)*E37/LN($Q$2*C37)</f>
-        <v>29886.449481643172</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
         <v>703038.64931554568</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42521</v>
       </c>
@@ -14439,23 +14429,23 @@
         <v>680532.40501855407</v>
       </c>
       <c r="E38">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F38" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F38" s="6">
+        <v>244.5</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>31105.808844999741</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="1"/>
-        <v>244.5</v>
-      </c>
-      <c r="G38" s="5">
-        <f>G37+($B$2-F38)*E38/LN($Q$2*C38)</f>
-        <v>31105.808844999741</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
         <v>731722.44329953869</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>42551</v>
       </c>
@@ -14469,23 +14459,23 @@
         <v>711807.91382285859</v>
       </c>
       <c r="E39">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F39" s="6">
+        <v>243.5</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="0"/>
+        <v>32285.005354285127</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="1"/>
-        <v>243.5</v>
-      </c>
-      <c r="G39" s="5">
-        <f>G38+($B$2-F39)*E39/LN($Q$2*C39)</f>
-        <v>32285.005354285127</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
         <v>759461.45999587805</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>42582</v>
       </c>
@@ -14499,23 +14489,23 @@
         <v>739883.92062762845</v>
       </c>
       <c r="E40">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F40" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F40" s="6">
+        <v>242.5</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>33502.589805642703</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="1"/>
-        <v>242.5</v>
-      </c>
-      <c r="G40" s="5">
-        <f>G39+($B$2-F40)*E40/LN($Q$2*C40)</f>
-        <v>33502.589805642703</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
         <v>788103.50155507424</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>42613</v>
       </c>
@@ -14529,23 +14519,23 @@
         <v>767867.08950338513</v>
       </c>
       <c r="E41">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F41" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F41" s="6">
+        <v>241.5</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="0"/>
+        <v>34719.656337273969</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="1"/>
-        <v>241.5</v>
-      </c>
-      <c r="G41" s="5">
-        <f>G40+($B$2-F41)*E41/LN($Q$2*C41)</f>
-        <v>34719.656337273969</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
         <v>816733.35974718747</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>42643</v>
       </c>
@@ -14559,23 +14549,23 @@
         <v>836876.46968152374</v>
       </c>
       <c r="E42">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F42" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F42" s="6">
+        <v>241</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>35891.294070944416</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="1"/>
-        <v>241</v>
-      </c>
-      <c r="G42" s="5">
-        <f>G41+($B$2-F42)*E42/LN($Q$2*C42)</f>
-        <v>35891.294070944416</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
         <v>844294.56638274761</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42674</v>
       </c>
@@ -14589,23 +14579,23 @@
         <v>858111.2919415487</v>
       </c>
       <c r="E43">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F43" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F43" s="6">
+        <v>240.5</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="0"/>
+        <v>37095.647921508535</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="1"/>
-        <v>240.5</v>
-      </c>
-      <c r="G43" s="5">
-        <f>G42+($B$2-F43)*E43/LN($Q$2*C43)</f>
-        <v>37095.647921508535</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
         <v>872625.37579919037</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42704</v>
       </c>
@@ -14619,23 +14609,23 @@
         <v>923625.54732949287</v>
       </c>
       <c r="E44">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F44" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F44" s="6">
+        <v>240</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>38255.828449287466</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="G44" s="5">
-        <f>G43+($B$2-F44)*E44/LN($Q$2*C44)</f>
-        <v>38255.828449287466</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
         <v>899917.06702911993</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42735</v>
       </c>
@@ -14649,23 +14639,23 @@
         <v>939858.27165826131</v>
       </c>
       <c r="E45">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F45" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F45" s="6">
+        <v>239.5</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="0"/>
+        <v>39449.18374817424</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="1"/>
-        <v>239.5</v>
-      </c>
-      <c r="G45" s="5">
-        <f>G44+($B$2-F45)*E45/LN($Q$2*C45)</f>
-        <v>39449.18374817424</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
         <v>927989.15026531112</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42766</v>
       </c>
@@ -14679,23 +14669,23 @@
         <v>997285.17725201603</v>
       </c>
       <c r="E46">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F46" s="6">
+        <v>239</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="0"/>
+        <v>40637.423905584474</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="1"/>
-        <v>239</v>
-      </c>
-      <c r="G46" s="5">
-        <f>G45+($B$2-F46)*E46/LN($Q$2*C46)</f>
-        <v>40637.423905584474</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
         <v>955940.90665715968</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42794</v>
       </c>
@@ -14709,23 +14699,23 @@
         <v>1046777.559976481</v>
       </c>
       <c r="E47">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F47" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="F47" s="6">
+        <v>239</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="0"/>
+        <v>41701.609264580897</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="1"/>
-        <v>239</v>
-      </c>
-      <c r="G47" s="5">
-        <f>G46+($B$2-F47)*E47/LN($Q$2*C47)</f>
-        <v>41701.609264580897</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
         <v>980974.44026140275</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>42825</v>
       </c>
@@ -14739,23 +14729,23 @@
         <v>1058908.830277056</v>
       </c>
       <c r="E48">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F48" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F48" s="6">
+        <v>238.5</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="0"/>
+        <v>42875.407624318585</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="1"/>
-        <v>238.5</v>
-      </c>
-      <c r="G48" s="5">
-        <f>G47+($B$2-F48)*E48/LN($Q$2*C48)</f>
-        <v>42875.407624318585</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
         <v>1008586.4727280112</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>42855</v>
       </c>
@@ -14769,23 +14759,23 @@
         <v>1116418.475525748</v>
       </c>
       <c r="E49">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F49" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F49" s="6">
+        <v>238</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="0"/>
+        <v>44007.693990262429</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="1"/>
-        <v>238</v>
-      </c>
-      <c r="G49" s="5">
-        <f>G48+($B$2-F49)*E49/LN($Q$2*C49)</f>
-        <v>44007.693990262429</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
         <v>1035221.9912040521</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>42886</v>
       </c>
@@ -14799,19 +14789,19 @@
         <v>1173723.616129026</v>
       </c>
       <c r="E50">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F50" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="F50" s="6">
+        <v>238</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="0"/>
+        <v>45167.733814173254</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="1"/>
-        <v>238</v>
-      </c>
-      <c r="G50" s="5">
-        <f>G49+($B$2-F50)*E50/LN($Q$2*C50)</f>
-        <v>45167.733814173254</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
         <v>1062510.3725641544</v>
       </c>
     </row>
@@ -14832,15 +14822,15 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14885,7 +14875,7 @@
         <v>4588866.1900000004</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>41425</v>
       </c>
@@ -14933,7 +14923,7 @@
         <v>29.264116300000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>41455</v>
       </c>
@@ -14959,7 +14949,7 @@
         <v>332</v>
       </c>
       <c r="H3" s="7">
-        <f>H2+($S$1/$B$2)*(G2-F3)*(1-EXP(-$S$2*$B$2*E3/$S$1))</f>
+        <f t="shared" ref="H3:H50" si="0">H2+($S$1/$B$2)*(G2-F3)*(1-EXP(-$S$2*$B$2*E3/$S$1))</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -14977,7 +14967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>41486</v>
       </c>
@@ -15003,7 +14993,7 @@
         <v>331.96823670999635</v>
       </c>
       <c r="H4" s="7">
-        <f>H3+($S$1/$B$2)*(G3-F4)*(1-EXP(-$S$2*$B$2*E4/$S$1))</f>
+        <f t="shared" si="0"/>
         <v>439.02857705046728</v>
       </c>
       <c r="I4" s="5">
@@ -15018,7 +15008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>41517</v>
       </c>
@@ -15036,7 +15026,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F48" si="0">(B5+B4)/2</f>
+        <f t="shared" ref="F5:F48" si="1">(B5+B4)/2</f>
         <v>330</v>
       </c>
       <c r="G5" s="5">
@@ -15044,7 +15034,7 @@
         <v>331.84320136316563</v>
       </c>
       <c r="H5" s="7">
-        <f>H4+($S$1/$B$2)*(G4-F5)*(1-EXP(-$S$2*$B$2*E5/$S$1))</f>
+        <f t="shared" si="0"/>
         <v>2167.2529012268465</v>
       </c>
       <c r="I5" s="5">
@@ -15052,14 +15042,14 @@
         <v>331.84320136316563</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J50" si="1">2*(I4-(H5-H4)*($B$2/$S$1)/(1-EXP(-$S$2*$B$2*E5/$S$1)))-J4</f>
+        <f t="shared" ref="J5:J50" si="2">2*(I4-(H5-H4)*($B$2/$S$1)/(1-EXP(-$S$2*$B$2*E5/$S$1)))-J4</f>
         <v>329</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>41547</v>
       </c>
@@ -15077,15 +15067,15 @@
         <v>30</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>328.5</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:G49" si="3">$B$2*(1-H6/$S$1)</f>
+        <v>331.6374549018019</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>328.5</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6:I49" si="2">$B$2*(1-H6/$S$1)</f>
-        <v>331.6374549018019</v>
-      </c>
-      <c r="H6" s="7">
-        <f>H5+($S$1/$B$2)*(G5-F6)*(1-EXP(-$S$2*$B$2*E6/$S$1))</f>
         <v>5011.0570586492977</v>
       </c>
       <c r="I6" s="5">
@@ -15093,11 +15083,11 @@
         <v>331.6374549018019</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>41578</v>
       </c>
@@ -15111,19 +15101,19 @@
         <v>90906.364903643786</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E49" si="3">C7-C6</f>
+        <f t="shared" ref="E7:E49" si="4">C7-C6</f>
         <v>31</v>
       </c>
       <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>327.5</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>331.37461654195624</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>327.5</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="2"/>
-        <v>331.37461654195624</v>
-      </c>
-      <c r="H7" s="7">
-        <f>H6+($S$1/$B$2)*(G6-F7)*(1-EXP(-$S$2*$B$2*E7/$S$1))</f>
         <v>8643.9789349464372</v>
       </c>
       <c r="I7" s="5">
@@ -15131,14 +15121,14 @@
         <v>331.37461654195624</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>327</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>41608</v>
       </c>
@@ -15152,19 +15142,19 @@
         <v>74137.211822990444</v>
       </c>
       <c r="E8">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F8" s="6">
+        <v>331.04385323619852</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>326</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="2"/>
-        <v>331.04385323619852</v>
-      </c>
-      <c r="H8" s="7">
-        <f>H7+($S$1/$B$2)*(G7-F8)*(1-EXP(-$S$2*$B$2*E8/$S$1))</f>
         <v>13215.751677972028</v>
       </c>
       <c r="I8" s="5">
@@ -15172,14 +15162,14 @@
         <v>331.04385323619852</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>325</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>41639</v>
       </c>
@@ -15193,31 +15183,31 @@
         <v>122376.3633243817</v>
       </c>
       <c r="E9">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F9" s="6">
+        <v>330.59638133002994</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>324</v>
-      </c>
-      <c r="G9" s="5">
+        <v>19400.657404453155</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:I50" si="5">$B$2*(1-H9/$S$1)</f>
+        <v>330.59638133002994</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>330.59638133002994</v>
-      </c>
-      <c r="H9" s="7">
-        <f>H8+($S$1/$B$2)*(G8-F9)*(1-EXP(-$S$2*$B$2*E9/$S$1))</f>
-        <v>19400.657404453155</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" ref="I5:I50" si="4">$B$2*(1-H9/$S$1)</f>
-        <v>330.59638133002994</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="1"/>
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>41670</v>
       </c>
@@ -15231,31 +15221,31 @@
         <v>113517.5504646811</v>
       </c>
       <c r="E10">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>321.5</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F10" s="6">
+        <v>330.01851933369153</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>321.5</v>
-      </c>
-      <c r="G10" s="5">
+        <v>27387.800107716121</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="5"/>
+        <v>330.01851933369153</v>
+      </c>
+      <c r="J10" s="7">
         <f t="shared" si="2"/>
-        <v>330.01851933369153</v>
-      </c>
-      <c r="H10" s="7">
-        <f>H9+($S$1/$B$2)*(G9-F10)*(1-EXP(-$S$2*$B$2*E10/$S$1))</f>
-        <v>27387.800107716121</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="4"/>
-        <v>330.01851933369153</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>41698</v>
       </c>
@@ -15269,31 +15259,31 @@
         <v>142203.5251310271</v>
       </c>
       <c r="E11">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>319</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="F11" s="6">
+        <v>329.38429931444841</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>319</v>
-      </c>
-      <c r="G11" s="5">
+        <v>36153.916985203301</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="5"/>
+        <v>329.38429931444841</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="2"/>
-        <v>329.38429931444841</v>
-      </c>
-      <c r="H11" s="7">
-        <f>H10+($S$1/$B$2)*(G10-F11)*(1-EXP(-$S$2*$B$2*E11/$S$1))</f>
-        <v>36153.916985203301</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="4"/>
-        <v>329.38429931444841</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="1"/>
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>41729</v>
       </c>
@@ -15307,31 +15297,31 @@
         <v>166948.86488772431</v>
       </c>
       <c r="E12">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F12" s="6">
+        <v>328.53404055320834</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>316</v>
-      </c>
-      <c r="G12" s="5">
+        <v>47906.096750882964</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="5"/>
+        <v>328.53404055320834</v>
+      </c>
+      <c r="J12" s="7">
         <f t="shared" si="2"/>
-        <v>328.53404055320834</v>
-      </c>
-      <c r="H12" s="7">
-        <f>H11+($S$1/$B$2)*(G11-F12)*(1-EXP(-$S$2*$B$2*E12/$S$1))</f>
-        <v>47906.096750882964</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="4"/>
-        <v>328.53404055320834</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="1"/>
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>41759</v>
       </c>
@@ -15345,31 +15335,31 @@
         <v>203231.0780829337</v>
       </c>
       <c r="E13">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F13" s="6">
+        <v>327.57804851823346</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>313</v>
-      </c>
-      <c r="G13" s="5">
+        <v>61119.709784634957</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="5"/>
+        <v>327.57804851823346</v>
+      </c>
+      <c r="J13" s="7">
         <f t="shared" si="2"/>
-        <v>327.57804851823346</v>
-      </c>
-      <c r="H13" s="7">
-        <f>H12+($S$1/$B$2)*(G12-F13)*(1-EXP(-$S$2*$B$2*E13/$S$1))</f>
-        <v>61119.709784634957</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="4"/>
-        <v>327.57804851823346</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="1"/>
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>41790</v>
       </c>
@@ -15383,31 +15373,31 @@
         <v>188484.02867767381</v>
       </c>
       <c r="E14">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>310.5</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F14" s="6">
+        <v>326.49313850267254</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>310.5</v>
-      </c>
-      <c r="G14" s="5">
+        <v>76115.212464152704</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="5"/>
+        <v>326.49313850267254</v>
+      </c>
+      <c r="J14" s="7">
         <f t="shared" si="2"/>
-        <v>326.49313850267254</v>
-      </c>
-      <c r="H14" s="7">
-        <f>H13+($S$1/$B$2)*(G13-F14)*(1-EXP(-$S$2*$B$2*E14/$S$1))</f>
-        <v>76115.212464152704</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="4"/>
-        <v>326.49313850267254</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="1"/>
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>41820</v>
       </c>
@@ -15421,31 +15411,31 @@
         <v>203829.66553335331</v>
       </c>
       <c r="E15">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F15" s="6">
+        <v>325.29349665280182</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>307</v>
-      </c>
-      <c r="G15" s="5">
+        <v>92696.525491203356</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>325.29349665280182</v>
+      </c>
+      <c r="J15" s="7">
         <f t="shared" si="2"/>
-        <v>325.29349665280182</v>
-      </c>
-      <c r="H15" s="7">
-        <f>H14+($S$1/$B$2)*(G14-F15)*(1-EXP(-$S$2*$B$2*E15/$S$1))</f>
-        <v>92696.525491203356</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="4"/>
-        <v>325.29349665280182</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="1"/>
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>41851</v>
       </c>
@@ -15459,31 +15449,31 @@
         <v>227894.28514410419</v>
       </c>
       <c r="E16">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F16" s="6">
+        <v>323.87726705404668</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>303</v>
-      </c>
-      <c r="G16" s="5">
+        <v>112271.48971712124</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="5"/>
+        <v>323.87726705404668</v>
+      </c>
+      <c r="J16" s="7">
         <f t="shared" si="2"/>
-        <v>323.87726705404668</v>
-      </c>
-      <c r="H16" s="7">
-        <f>H15+($S$1/$B$2)*(G15-F16)*(1-EXP(-$S$2*$B$2*E16/$S$1))</f>
-        <v>112271.48971712124</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="4"/>
-        <v>323.87726705404668</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="1"/>
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>41882</v>
       </c>
@@ -15497,31 +15487,31 @@
         <v>281480.01901173848</v>
       </c>
       <c r="E17">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>298.5</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F17" s="6">
+        <v>322.26513606817292</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>298.5</v>
-      </c>
-      <c r="G17" s="5">
+        <v>134554.18060545687</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="5"/>
+        <v>322.26513606817292</v>
+      </c>
+      <c r="J17" s="7">
         <f t="shared" si="2"/>
-        <v>322.26513606817292</v>
-      </c>
-      <c r="H17" s="7">
-        <f>H16+($S$1/$B$2)*(G16-F17)*(1-EXP(-$S$2*$B$2*E17/$S$1))</f>
-        <v>134554.18060545687</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="4"/>
-        <v>322.26513606817292</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="1"/>
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>41912</v>
       </c>
@@ -15535,31 +15525,31 @@
         <v>313034.51715736109</v>
       </c>
       <c r="E18">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
+        <v>293.5</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F18" s="6">
+        <v>320.49487926525353</v>
+      </c>
+      <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>293.5</v>
-      </c>
-      <c r="G18" s="5">
+        <v>159022.46852875297</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="5"/>
+        <v>320.49487926525353</v>
+      </c>
+      <c r="J18" s="7">
         <f t="shared" si="2"/>
-        <v>320.49487926525353</v>
-      </c>
-      <c r="H18" s="7">
-        <f>H17+($S$1/$B$2)*(G17-F18)*(1-EXP(-$S$2*$B$2*E18/$S$1))</f>
-        <v>159022.46852875297</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="4"/>
-        <v>320.49487926525353</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="1"/>
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>41943</v>
       </c>
@@ -15573,69 +15563,69 @@
         <v>343937.7062259228</v>
       </c>
       <c r="E19">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>288.5</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F19" s="6">
+        <v>318.46235400778772</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>288.5</v>
-      </c>
-      <c r="G19" s="5">
+        <v>187115.80116220447</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="5"/>
+        <v>318.46235400778772</v>
+      </c>
+      <c r="J19" s="7">
         <f t="shared" si="2"/>
-        <v>318.46235400778772</v>
-      </c>
-      <c r="H19" s="7">
-        <f>H18+($S$1/$B$2)*(G18-F19)*(1-EXP(-$S$2*$B$2*E19/$S$1))</f>
-        <v>187115.80116220447</v>
-      </c>
-      <c r="I19" s="5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>41973</v>
+      </c>
+      <c r="B20">
+        <v>286</v>
+      </c>
+      <c r="C20">
+        <v>548</v>
+      </c>
+      <c r="D20">
+        <v>343937.7062259228</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="4"/>
-        <v>318.46235400778772</v>
-      </c>
-      <c r="J19" s="7">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="1"/>
         <v>286</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>41973</v>
-      </c>
-      <c r="B20">
+      <c r="G20" s="5">
+        <f t="shared" si="3"/>
+        <v>316.46456394398029</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>214729.02790474586</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="5"/>
+        <v>316.46456394398029</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="2"/>
         <v>286</v>
       </c>
-      <c r="C20">
-        <v>548</v>
-      </c>
-      <c r="D20">
-        <v>343937.7062259228</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="2"/>
-        <v>316.46456394398029</v>
-      </c>
-      <c r="H20" s="7">
-        <f>H19+($S$1/$B$2)*(G19-F20)*(1-EXP(-$S$2*$B$2*E20/$S$1))</f>
-        <v>214729.02790474586</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="4"/>
-        <v>316.46456394398029</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="1"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>42004</v>
       </c>
@@ -15649,107 +15639,107 @@
         <v>295147.80728750769</v>
       </c>
       <c r="E21">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>285.5</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
+        <v>314.49749109520405</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>241917.68479937362</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="5"/>
+        <v>314.49749109520405</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>42035</v>
+      </c>
+      <c r="B22">
+        <v>285</v>
+      </c>
+      <c r="C22">
+        <v>610</v>
+      </c>
+      <c r="D22">
+        <v>295147.80728750769</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>285.5</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="2"/>
-        <v>314.49749109520405</v>
-      </c>
-      <c r="H21" s="7">
-        <f>H20+($S$1/$B$2)*(G20-F21)*(1-EXP(-$S$2*$B$2*E21/$S$1))</f>
-        <v>241917.68479937362</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="4"/>
-        <v>314.49749109520405</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>42035</v>
-      </c>
-      <c r="B22">
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>312.623616367132</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>267818.16788354615</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="5"/>
+        <v>312.623616367132</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="C22">
-        <v>610</v>
-      </c>
-      <c r="D22">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>42063</v>
+      </c>
+      <c r="B23">
+        <v>285</v>
+      </c>
+      <c r="C23">
+        <v>638</v>
+      </c>
+      <c r="D23">
         <v>295147.80728750769</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="2"/>
-        <v>312.623616367132</v>
-      </c>
-      <c r="H22" s="7">
-        <f>H21+($S$1/$B$2)*(G21-F22)*(1-EXP(-$S$2*$B$2*E22/$S$1))</f>
-        <v>267818.16788354615</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="E23">
         <f t="shared" si="4"/>
-        <v>312.623616367132</v>
-      </c>
-      <c r="J22" s="7">
+        <v>28</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>42063</v>
-      </c>
-      <c r="B23">
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>311.03361593482742</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>289794.97278079897</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="5"/>
+        <v>311.03361593482742</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="C23">
-        <v>638</v>
-      </c>
-      <c r="D23">
-        <v>295147.80728750769</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="2"/>
-        <v>311.03361593482742</v>
-      </c>
-      <c r="H23" s="7">
-        <f>H22+($S$1/$B$2)*(G22-F23)*(1-EXP(-$S$2*$B$2*E23/$S$1))</f>
-        <v>289794.97278079897</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="4"/>
-        <v>311.03361593482742</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>42094</v>
       </c>
@@ -15763,31 +15753,31 @@
         <v>372409.39283608738</v>
       </c>
       <c r="E24">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F24" s="6">
+        <v>309.25273618925161</v>
+      </c>
+      <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>283</v>
-      </c>
-      <c r="G24" s="5">
+        <v>314410.08980769216</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="5"/>
+        <v>309.25273618925161</v>
+      </c>
+      <c r="J24" s="7">
         <f t="shared" si="2"/>
-        <v>309.25273618925161</v>
-      </c>
-      <c r="H24" s="7">
-        <f>H23+($S$1/$B$2)*(G23-F24)*(1-EXP(-$S$2*$B$2*E24/$S$1))</f>
-        <v>314410.08980769216</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="4"/>
-        <v>309.25273618925161</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="1"/>
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>42124</v>
       </c>
@@ -15801,31 +15791,31 @@
         <v>374550.52909396117</v>
       </c>
       <c r="E25">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
+        <v>278.5</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F25" s="6">
+        <v>307.36015899725135</v>
+      </c>
+      <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>278.5</v>
-      </c>
-      <c r="G25" s="5">
+        <v>340569.07621834014</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="5"/>
+        <v>307.36015899725135</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="2"/>
-        <v>307.36015899725135</v>
-      </c>
-      <c r="H25" s="7">
-        <f>H24+($S$1/$B$2)*(G24-F25)*(1-EXP(-$S$2*$B$2*E25/$S$1))</f>
-        <v>340569.07621834014</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="4"/>
-        <v>307.36015899725135</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="1"/>
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>42155</v>
       </c>
@@ -15839,31 +15829,31 @@
         <v>413077.95990815712</v>
       </c>
       <c r="E26">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F26" s="6">
+        <v>305.24090218765855</v>
+      </c>
+      <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="G26" s="5">
+        <v>369861.20248782134</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="5"/>
+        <v>305.24090218765855</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="2"/>
-        <v>305.24090218765855</v>
-      </c>
-      <c r="H26" s="7">
-        <f>H25+($S$1/$B$2)*(G25-F26)*(1-EXP(-$S$2*$B$2*E26/$S$1))</f>
-        <v>369861.20248782134</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="4"/>
-        <v>305.24090218765855</v>
-      </c>
-      <c r="J26" s="7">
-        <f t="shared" si="1"/>
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>42185</v>
       </c>
@@ -15877,31 +15867,31 @@
         <v>430979.08549255319</v>
       </c>
       <c r="E27">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F27" s="6">
+        <v>303.07211540733994</v>
+      </c>
+      <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="G27" s="5">
+        <v>399837.92637192685</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="5"/>
+        <v>303.07211540733994</v>
+      </c>
+      <c r="J27" s="7">
         <f t="shared" si="2"/>
-        <v>303.07211540733994</v>
-      </c>
-      <c r="H27" s="7">
-        <f>H26+($S$1/$B$2)*(G26-F27)*(1-EXP(-$S$2*$B$2*E27/$S$1))</f>
-        <v>399837.92637192685</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="4"/>
-        <v>303.07211540733994</v>
-      </c>
-      <c r="J27" s="7">
-        <f t="shared" si="1"/>
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>42216</v>
       </c>
@@ -15915,31 +15905,31 @@
         <v>440508.43910889467</v>
       </c>
       <c r="E28">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F28" s="6">
+        <v>300.71705070187824</v>
+      </c>
+      <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>266</v>
-      </c>
-      <c r="G28" s="5">
+        <v>432389.36252299714</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="5"/>
+        <v>300.71705070187824</v>
+      </c>
+      <c r="J28" s="7">
         <f t="shared" si="2"/>
-        <v>300.71705070187824</v>
-      </c>
-      <c r="H28" s="7">
-        <f>H27+($S$1/$B$2)*(G27-F28)*(1-EXP(-$S$2*$B$2*E28/$S$1))</f>
-        <v>432389.36252299714</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="4"/>
-        <v>300.71705070187824</v>
-      </c>
-      <c r="J28" s="7">
-        <f t="shared" si="1"/>
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>42247</v>
       </c>
@@ -15953,31 +15943,31 @@
         <v>477361.46838374389</v>
       </c>
       <c r="E29">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>262.5</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F29" s="6">
+        <v>298.289252172825</v>
+      </c>
+      <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>262.5</v>
-      </c>
-      <c r="G29" s="5">
+        <v>465946.11730041949</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="5"/>
+        <v>298.289252172825</v>
+      </c>
+      <c r="J29" s="7">
         <f t="shared" si="2"/>
-        <v>298.289252172825</v>
-      </c>
-      <c r="H29" s="7">
-        <f>H28+($S$1/$B$2)*(G28-F29)*(1-EXP(-$S$2*$B$2*E29/$S$1))</f>
-        <v>465946.11730041949</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="4"/>
-        <v>298.289252172825</v>
-      </c>
-      <c r="J29" s="7">
-        <f t="shared" si="1"/>
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>42277</v>
       </c>
@@ -15991,31 +15981,31 @@
         <v>490145.66499025002</v>
       </c>
       <c r="E30">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="1"/>
+        <v>259.5</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F30" s="6">
+        <v>295.90209372600384</v>
+      </c>
+      <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>259.5</v>
-      </c>
-      <c r="G30" s="5">
+        <v>498941.14948954777</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="5"/>
+        <v>295.90209372600384</v>
+      </c>
+      <c r="J30" s="7">
         <f t="shared" si="2"/>
-        <v>295.90209372600384</v>
-      </c>
-      <c r="H30" s="7">
-        <f>H29+($S$1/$B$2)*(G29-F30)*(1-EXP(-$S$2*$B$2*E30/$S$1))</f>
-        <v>498941.14948954777</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="4"/>
-        <v>295.90209372600384</v>
-      </c>
-      <c r="J30" s="7">
-        <f t="shared" si="1"/>
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>42308</v>
       </c>
@@ -16029,31 +16019,31 @@
         <v>492906.72321968112</v>
       </c>
       <c r="E31">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="1"/>
+        <v>256.5</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F31" s="6">
+        <v>293.39901346646644</v>
+      </c>
+      <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>256.5</v>
-      </c>
-      <c r="G31" s="5">
+        <v>533538.43977222103</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="5"/>
+        <v>293.39901346646644</v>
+      </c>
+      <c r="J31" s="7">
         <f t="shared" si="2"/>
-        <v>293.39901346646644</v>
-      </c>
-      <c r="H31" s="7">
-        <f>H30+($S$1/$B$2)*(G30-F31)*(1-EXP(-$S$2*$B$2*E31/$S$1))</f>
-        <v>533538.43977222103</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="4"/>
-        <v>293.39901346646644</v>
-      </c>
-      <c r="J31" s="7">
-        <f t="shared" si="1"/>
         <v>254.99999999999989</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>42338</v>
       </c>
@@ -16067,31 +16057,31 @@
         <v>520455.14114960929</v>
       </c>
       <c r="E32">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F32" s="6">
+        <v>290.97432924275807</v>
+      </c>
+      <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>254</v>
-      </c>
-      <c r="G32" s="5">
+        <v>567052.14897584147</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="5"/>
+        <v>290.97432924275807</v>
+      </c>
+      <c r="J32" s="7">
         <f t="shared" si="2"/>
-        <v>290.97432924275807</v>
-      </c>
-      <c r="H32" s="7">
-        <f>H31+($S$1/$B$2)*(G31-F32)*(1-EXP(-$S$2*$B$2*E32/$S$1))</f>
-        <v>567052.14897584147</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="4"/>
-        <v>290.97432924275807</v>
-      </c>
-      <c r="J32" s="7">
-        <f t="shared" si="1"/>
         <v>253.00000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>42369</v>
       </c>
@@ -16105,31 +16095,31 @@
         <v>547832.725670252</v>
       </c>
       <c r="E33">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F33" s="6">
+        <v>288.49842339788978</v>
+      </c>
+      <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="G33" s="5">
+        <v>601273.83759373042</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="5"/>
+        <v>288.49842339788978</v>
+      </c>
+      <c r="J33" s="7">
         <f t="shared" si="2"/>
-        <v>288.49842339788978</v>
-      </c>
-      <c r="H33" s="7">
-        <f>H32+($S$1/$B$2)*(G32-F33)*(1-EXP(-$S$2*$B$2*E33/$S$1))</f>
-        <v>601273.83759373042</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="4"/>
-        <v>288.49842339788978</v>
-      </c>
-      <c r="J33" s="7">
-        <f t="shared" si="1"/>
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>42400</v>
       </c>
@@ -16143,31 +16133,31 @@
         <v>561596.73962360946</v>
       </c>
       <c r="E34">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F34" s="6">
+        <v>286.05275022375156</v>
+      </c>
+      <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="G34" s="5">
+        <v>635077.65367985435</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="5"/>
+        <v>286.05275022375156</v>
+      </c>
+      <c r="J34" s="7">
         <f t="shared" si="2"/>
-        <v>286.05275022375156</v>
-      </c>
-      <c r="H34" s="7">
-        <f>H33+($S$1/$B$2)*(G33-F34)*(1-EXP(-$S$2*$B$2*E34/$S$1))</f>
-        <v>635077.65367985435</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="4"/>
-        <v>286.05275022375156</v>
-      </c>
-      <c r="J34" s="7">
-        <f t="shared" si="1"/>
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>42429</v>
       </c>
@@ -16181,31 +16171,31 @@
         <v>558106.80586574459</v>
       </c>
       <c r="E35">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="F35" s="6">
+        <v>283.78660572895649</v>
+      </c>
+      <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="G35" s="5">
+        <v>666400.04480581766</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="5"/>
+        <v>283.78660572895649</v>
+      </c>
+      <c r="J35" s="7">
         <f t="shared" si="2"/>
-        <v>283.78660572895649</v>
-      </c>
-      <c r="H35" s="7">
-        <f>H34+($S$1/$B$2)*(G34-F35)*(1-EXP(-$S$2*$B$2*E35/$S$1))</f>
-        <v>666400.04480581766</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="4"/>
-        <v>283.78660572895649</v>
-      </c>
-      <c r="J35" s="7">
-        <f t="shared" si="1"/>
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>42460</v>
       </c>
@@ -16219,31 +16209,31 @@
         <v>603416.09836924355</v>
       </c>
       <c r="E36">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="1"/>
+        <v>246.5</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F36" s="6">
+        <v>281.41791518691787</v>
+      </c>
+      <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>246.5</v>
-      </c>
-      <c r="G36" s="5">
+        <v>699139.81571826874</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="5"/>
+        <v>281.41791518691787</v>
+      </c>
+      <c r="J36" s="7">
         <f t="shared" si="2"/>
-        <v>281.41791518691787</v>
-      </c>
-      <c r="H36" s="7">
-        <f>H35+($S$1/$B$2)*(G35-F36)*(1-EXP(-$S$2*$B$2*E36/$S$1))</f>
-        <v>699139.81571826874</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="4"/>
-        <v>281.41791518691787</v>
-      </c>
-      <c r="J36" s="7">
-        <f t="shared" si="1"/>
         <v>246.00000000000011</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>42490</v>
       </c>
@@ -16257,31 +16247,31 @@
         <v>643845.99340117723</v>
       </c>
       <c r="E37">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="1"/>
+        <v>245.5</v>
+      </c>
+      <c r="G37" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F37" s="6">
+        <v>279.20746384208041</v>
+      </c>
+      <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>245.5</v>
-      </c>
-      <c r="G37" s="5">
+        <v>729692.42246816121</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="5"/>
+        <v>279.20746384208041</v>
+      </c>
+      <c r="J37" s="7">
         <f t="shared" si="2"/>
-        <v>279.20746384208041</v>
-      </c>
-      <c r="H37" s="7">
-        <f>H36+($S$1/$B$2)*(G36-F37)*(1-EXP(-$S$2*$B$2*E37/$S$1))</f>
-        <v>729692.42246816121</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="4"/>
-        <v>279.20746384208041</v>
-      </c>
-      <c r="J37" s="7">
-        <f t="shared" si="1"/>
         <v>244.99999999999989</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42521</v>
       </c>
@@ -16295,31 +16285,31 @@
         <v>680532.40501855407</v>
       </c>
       <c r="E38">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="1"/>
+        <v>244.5</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F38" s="6">
+        <v>277.00261736346846</v>
+      </c>
+      <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>244.5</v>
-      </c>
-      <c r="G38" s="5">
+        <v>760167.55939539941</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="5"/>
+        <v>277.00261736346846</v>
+      </c>
+      <c r="J38" s="7">
         <f t="shared" si="2"/>
-        <v>277.00261736346846</v>
-      </c>
-      <c r="H38" s="7">
-        <f>H37+($S$1/$B$2)*(G37-F38)*(1-EXP(-$S$2*$B$2*E38/$S$1))</f>
-        <v>760167.55939539941</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="4"/>
-        <v>277.00261736346846</v>
-      </c>
-      <c r="J38" s="7">
-        <f t="shared" si="1"/>
         <v>244.00000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>42551</v>
       </c>
@@ -16333,31 +16323,31 @@
         <v>711807.91382285859</v>
       </c>
       <c r="E39">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="1"/>
+        <v>243.5</v>
+      </c>
+      <c r="G39" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F39" s="6">
+        <v>274.94080767264256</v>
+      </c>
+      <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>243.5</v>
-      </c>
-      <c r="G39" s="5">
+        <v>788665.65813168092</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="5"/>
+        <v>274.94080767264256</v>
+      </c>
+      <c r="J39" s="7">
         <f t="shared" si="2"/>
-        <v>274.94080767264256</v>
-      </c>
-      <c r="H39" s="7">
-        <f>H38+($S$1/$B$2)*(G38-F39)*(1-EXP(-$S$2*$B$2*E39/$S$1))</f>
-        <v>788665.65813168092</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" si="4"/>
-        <v>274.94080767264256</v>
-      </c>
-      <c r="J39" s="7">
-        <f t="shared" si="1"/>
         <v>242.99999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>42582</v>
       </c>
@@ -16371,31 +16361,31 @@
         <v>739883.92062762845</v>
       </c>
       <c r="E40">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="1"/>
+        <v>242.5</v>
+      </c>
+      <c r="G40" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F40" s="6">
+        <v>272.87995410852722</v>
+      </c>
+      <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>242.5</v>
-      </c>
-      <c r="G40" s="5">
+        <v>817150.54139345721</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="5"/>
+        <v>272.87995410852722</v>
+      </c>
+      <c r="J40" s="7">
         <f t="shared" si="2"/>
-        <v>272.87995410852722</v>
-      </c>
-      <c r="H40" s="7">
-        <f>H39+($S$1/$B$2)*(G39-F40)*(1-EXP(-$S$2*$B$2*E40/$S$1))</f>
-        <v>817150.54139345721</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="4"/>
-        <v>272.87995410852722</v>
-      </c>
-      <c r="J40" s="7">
-        <f t="shared" si="1"/>
         <v>242.00000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>42613</v>
       </c>
@@ -16409,31 +16399,31 @@
         <v>767867.08950338513</v>
       </c>
       <c r="E41">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="1"/>
+        <v>241.5</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F41" s="6">
+        <v>270.88649294322869</v>
+      </c>
+      <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>241.5</v>
-      </c>
-      <c r="G41" s="5">
+        <v>844703.9345938086</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="5"/>
+        <v>270.88649294322869</v>
+      </c>
+      <c r="J41" s="7">
         <f t="shared" si="2"/>
-        <v>270.88649294322869</v>
-      </c>
-      <c r="H41" s="7">
-        <f>H40+($S$1/$B$2)*(G40-F41)*(1-EXP(-$S$2*$B$2*E41/$S$1))</f>
-        <v>844703.9345938086</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="4"/>
-        <v>270.88649294322869</v>
-      </c>
-      <c r="J41" s="7">
-        <f t="shared" si="1"/>
         <v>240.99999999999983</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>42643</v>
       </c>
@@ -16447,31 +16437,31 @@
         <v>836876.46968152374</v>
       </c>
       <c r="E42">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F42" s="6">
+        <v>269.04722587622211</v>
+      </c>
+      <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="G42" s="5">
+        <v>870126.07452804619</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="5"/>
+        <v>269.04722587622211</v>
+      </c>
+      <c r="J42" s="7">
         <f t="shared" si="2"/>
-        <v>269.04722587622211</v>
-      </c>
-      <c r="H42" s="7">
-        <f>H41+($S$1/$B$2)*(G41-F42)*(1-EXP(-$S$2*$B$2*E42/$S$1))</f>
-        <v>870126.07452804619</v>
-      </c>
-      <c r="I42" s="5">
-        <f t="shared" si="4"/>
-        <v>269.04722587622211</v>
-      </c>
-      <c r="J42" s="7">
-        <f t="shared" si="1"/>
         <v>241.00000000000011</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42674</v>
       </c>
@@ -16485,31 +16475,31 @@
         <v>858111.2919415487</v>
       </c>
       <c r="E43">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="1"/>
+        <v>240.5</v>
+      </c>
+      <c r="G43" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F43" s="6">
+        <v>267.23371824761176</v>
+      </c>
+      <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>240.5</v>
-      </c>
-      <c r="G43" s="5">
+        <v>895192.17043839837</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="5"/>
+        <v>267.23371824761176</v>
+      </c>
+      <c r="J43" s="7">
         <f t="shared" si="2"/>
-        <v>267.23371824761176</v>
-      </c>
-      <c r="H43" s="7">
-        <f>H42+($S$1/$B$2)*(G42-F43)*(1-EXP(-$S$2*$B$2*E43/$S$1))</f>
-        <v>895192.17043839837</v>
-      </c>
-      <c r="I43" s="5">
-        <f t="shared" si="4"/>
-        <v>267.23371824761176</v>
-      </c>
-      <c r="J43" s="7">
-        <f t="shared" si="1"/>
         <v>239.99999999999977</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42704</v>
       </c>
@@ -16523,31 +16513,31 @@
         <v>923625.54732949287</v>
       </c>
       <c r="E44">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G44" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F44" s="6">
+        <v>265.55770757683428</v>
+      </c>
+      <c r="H44" s="7">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="G44" s="5">
+        <v>918357.79905650113</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="5"/>
+        <v>265.55770757683428</v>
+      </c>
+      <c r="J44" s="7">
         <f t="shared" si="2"/>
-        <v>265.55770757683428</v>
-      </c>
-      <c r="H44" s="7">
-        <f>H43+($S$1/$B$2)*(G43-F44)*(1-EXP(-$S$2*$B$2*E44/$S$1))</f>
-        <v>918357.79905650113</v>
-      </c>
-      <c r="I44" s="5">
-        <f t="shared" si="4"/>
-        <v>265.55770757683428</v>
-      </c>
-      <c r="J44" s="7">
-        <f t="shared" si="1"/>
         <v>240.00000000000028</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42735</v>
       </c>
@@ -16561,31 +16551,31 @@
         <v>939858.27165826131</v>
       </c>
       <c r="E45">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="1"/>
+        <v>239.5</v>
+      </c>
+      <c r="G45" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F45" s="6">
+        <v>263.90235053164952</v>
+      </c>
+      <c r="H45" s="7">
         <f t="shared" si="0"/>
-        <v>239.5</v>
-      </c>
-      <c r="G45" s="5">
+        <v>941237.95561381057</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="5"/>
+        <v>263.90235053164952</v>
+      </c>
+      <c r="J45" s="7">
         <f t="shared" si="2"/>
-        <v>263.90235053164952</v>
-      </c>
-      <c r="H45" s="7">
-        <f>H44+($S$1/$B$2)*(G44-F45)*(1-EXP(-$S$2*$B$2*E45/$S$1))</f>
-        <v>941237.95561381057</v>
-      </c>
-      <c r="I45" s="5">
-        <f t="shared" si="4"/>
-        <v>263.90235053164952</v>
-      </c>
-      <c r="J45" s="7">
-        <f t="shared" si="1"/>
         <v>238.99999999999977</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42766</v>
       </c>
@@ -16599,31 +16589,31 @@
         <v>997285.17725201603</v>
       </c>
       <c r="E46">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="G46" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F46" s="6">
+        <v>262.32038936823255</v>
+      </c>
+      <c r="H46" s="7">
         <f t="shared" si="0"/>
-        <v>239</v>
-      </c>
-      <c r="G46" s="5">
+        <v>963103.64265205467</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="5"/>
+        <v>262.32038936823255</v>
+      </c>
+      <c r="J46" s="7">
         <f t="shared" si="2"/>
-        <v>262.32038936823255</v>
-      </c>
-      <c r="H46" s="7">
-        <f>H45+($S$1/$B$2)*(G45-F46)*(1-EXP(-$S$2*$B$2*E46/$S$1))</f>
-        <v>963103.64265205467</v>
-      </c>
-      <c r="I46" s="5">
-        <f t="shared" si="4"/>
-        <v>262.32038936823255</v>
-      </c>
-      <c r="J46" s="7">
-        <f t="shared" si="1"/>
         <v>239.00000000000017</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42794</v>
       </c>
@@ -16637,31 +16627,31 @@
         <v>1046777.559976481</v>
       </c>
       <c r="E47">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="G47" s="5">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="F47" s="6">
+        <v>260.9780803568346</v>
+      </c>
+      <c r="H47" s="7">
         <f t="shared" si="0"/>
-        <v>239</v>
-      </c>
-      <c r="G47" s="5">
+        <v>981656.88493800769</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="5"/>
+        <v>260.9780803568346</v>
+      </c>
+      <c r="J47" s="7">
         <f t="shared" si="2"/>
-        <v>260.9780803568346</v>
-      </c>
-      <c r="H47" s="7">
-        <f>H46+($S$1/$B$2)*(G46-F47)*(1-EXP(-$S$2*$B$2*E47/$S$1))</f>
-        <v>981656.88493800769</v>
-      </c>
-      <c r="I47" s="5">
-        <f t="shared" si="4"/>
-        <v>260.9780803568346</v>
-      </c>
-      <c r="J47" s="7">
-        <f t="shared" si="1"/>
         <v>238.99999999999972</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>42825</v>
       </c>
@@ -16675,31 +16665,31 @@
         <v>1058908.830277056</v>
       </c>
       <c r="E48">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="1"/>
+        <v>238.5</v>
+      </c>
+      <c r="G48" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="F48" s="6">
+        <v>259.55012478663718</v>
+      </c>
+      <c r="H48" s="7">
         <f t="shared" si="0"/>
-        <v>238.5</v>
-      </c>
-      <c r="G48" s="5">
+        <v>1001393.924205782</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="5"/>
+        <v>259.55012478663718</v>
+      </c>
+      <c r="J48" s="7">
         <f t="shared" si="2"/>
-        <v>259.55012478663718</v>
-      </c>
-      <c r="H48" s="7">
-        <f>H47+($S$1/$B$2)*(G47-F48)*(1-EXP(-$S$2*$B$2*E48/$S$1))</f>
-        <v>1001393.924205782</v>
-      </c>
-      <c r="I48" s="5">
-        <f t="shared" si="4"/>
-        <v>259.55012478663718</v>
-      </c>
-      <c r="J48" s="7">
-        <f t="shared" si="1"/>
         <v>238.00000000000023</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>42855</v>
       </c>
@@ -16713,7 +16703,7 @@
         <v>1116418.475525748</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="F49" s="6">
@@ -16721,23 +16711,23 @@
         <v>238</v>
       </c>
       <c r="G49" s="5">
+        <f t="shared" si="3"/>
+        <v>258.22389240181923</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="0"/>
+        <v>1019724.9571900418</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="5"/>
+        <v>258.22389240181923</v>
+      </c>
+      <c r="J49" s="7">
         <f t="shared" si="2"/>
-        <v>258.22389240181923</v>
-      </c>
-      <c r="H49" s="7">
-        <f>H48+($S$1/$B$2)*(G48-F49)*(1-EXP(-$S$2*$B$2*E49/$S$1))</f>
-        <v>1019724.9571900418</v>
-      </c>
-      <c r="I49" s="5">
-        <f t="shared" si="4"/>
-        <v>258.22389240181923</v>
-      </c>
-      <c r="J49" s="7">
-        <f t="shared" si="1"/>
         <v>237.99999999999977</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>42886</v>
       </c>
@@ -16763,20 +16753,20 @@
         <v>256.93913768309744</v>
       </c>
       <c r="H50" s="7">
-        <f>H49+($S$1/$B$2)*(G49-F50)*(1-EXP(-$S$2*$B$2*E50/$S$1))</f>
+        <f t="shared" si="0"/>
         <v>1037482.6905972267</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256.93913768309744</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238.00000000000011</v>
       </c>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="F51" s="6"/>
       <c r="G51" s="5"/>
@@ -16797,30 +16787,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED5DDA2-D3E2-4E1D-896C-3C8E0347BB93}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4:X50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.26953125" customWidth="1"/>
     <col min="12" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -16885,7 +16875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>41425</v>
       </c>
@@ -16938,7 +16928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>41455</v>
       </c>
@@ -16994,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>41486</v>
       </c>
@@ -17065,12 +17055,12 @@
       <c r="W4" s="7">
         <v>0.24699299999999999</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4">
         <f>Schilthuis!M4/1000</f>
-        <v>0.34596375813000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.23064250542000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>41517</v>
       </c>
@@ -17141,12 +17131,12 @@
       <c r="W5" s="7">
         <v>1.2349600000000001</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5">
         <f>Schilthuis!M5/1000</f>
-        <v>1.2685337798100003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1.1532125271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>41547</v>
       </c>
@@ -17217,12 +17207,12 @@
       <c r="W6" s="7">
         <v>2.9081399999999999</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6">
         <f>Schilthuis!M6/1000</f>
-        <v>2.8309507520100001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2.7156294993000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>41578</v>
       </c>
@@ -17293,12 +17283,12 @@
       <c r="W7" s="7">
         <v>5.1310799999999999</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7">
         <f>Schilthuis!M7/1000</f>
-        <v>4.9067333007900009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4.7914120480799998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>41608</v>
       </c>
@@ -17369,12 +17359,12 @@
       <c r="W8" s="7">
         <v>7.9993800000000004</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8">
         <f>Schilthuis!M8/1000</f>
-        <v>7.5851623959900003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>7.46984114328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>41639</v>
       </c>
@@ -17445,12 +17435,12 @@
       <c r="W9" s="7">
         <v>11.9513</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9">
         <f>Schilthuis!M9/1000</f>
-        <v>11.275442482710002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>11.160121230000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>41670</v>
       </c>
@@ -17521,12 +17511,12 @@
       <c r="W10" s="7">
         <v>17.138100000000001</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10">
         <f>Schilthuis!M10/1000</f>
-        <v>16.118935096529999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16.003613843820002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>41698</v>
       </c>
@@ -17597,12 +17587,12 @@
       <c r="W11" s="7">
         <v>22.938500000000001</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11">
         <f>Schilthuis!M11/1000</f>
-        <v>21.535313933490002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>21.419992680780002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>41729</v>
       </c>
@@ -17673,12 +17663,12 @@
       <c r="W12" s="7">
         <v>30.842199999999998</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12">
         <f>Schilthuis!M12/1000</f>
-        <v>28.915874106930001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>28.800552854220001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>41759</v>
       </c>
@@ -17749,12 +17739,12 @@
       <c r="W13" s="7">
         <v>39.925199999999997</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13">
         <f>Schilthuis!M13/1000</f>
-        <v>37.397566241730004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>37.282244989020001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>41790</v>
       </c>
@@ -17825,12 +17815,12 @@
       <c r="W14" s="7">
         <v>50.545900000000003</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14">
         <f>Schilthuis!M14/1000</f>
-        <v>47.315193974790006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>47.199872722080002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>41820</v>
       </c>
@@ -17901,12 +17891,12 @@
       <c r="W15" s="7">
         <v>62.497100000000003</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15">
         <f>Schilthuis!M15/1000</f>
-        <v>58.47531520479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>58.359993952080004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>41851</v>
       </c>
@@ -17977,12 +17967,12 @@
       <c r="W16" s="7">
         <v>76.822699999999998</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X16">
         <f>Schilthuis!M16/1000</f>
-        <v>71.852580519149996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>71.737259266440006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>41882</v>
       </c>
@@ -18053,12 +18043,12 @@
       <c r="W17" s="7">
         <v>93.371200000000002</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17">
         <f>Schilthuis!M17/1000</f>
-        <v>87.305628382289996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>87.190307129580006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>41912</v>
       </c>
@@ -18129,12 +18119,12 @@
       <c r="W18" s="7">
         <v>111.776</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X18">
         <f>Schilthuis!M18/1000</f>
-        <v>104.49221507649</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>104.37689382378001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>41943</v>
       </c>
@@ -18205,12 +18195,12 @@
       <c r="W19" s="7">
         <v>133.26499999999999</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X19">
         <f>Schilthuis!M19/1000</f>
-        <v>124.55811304803001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>124.44279179532001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>41973</v>
       </c>
@@ -18281,12 +18271,12 @@
       <c r="W20" s="7">
         <v>155.255</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X20">
         <f>Schilthuis!M20/1000</f>
-        <v>145.09273611123001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>144.97741485852001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>42004</v>
       </c>
@@ -18357,12 +18347,12 @@
       <c r="W21" s="7">
         <v>178.22499999999999</v>
       </c>
-      <c r="X21" s="14">
+      <c r="X21">
         <f>Schilthuis!M21/1000</f>
-        <v>166.54248911528998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>166.42716786258001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>42035</v>
       </c>
@@ -18433,12 +18423,12 @@
       <c r="W22" s="7">
         <v>201.44200000000001</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X22">
         <f>Schilthuis!M22/1000</f>
-        <v>188.22288462476999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>188.10756337206001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>42063</v>
       </c>
@@ -18509,12 +18499,12 @@
       <c r="W23" s="7">
         <v>222.41300000000001</v>
       </c>
-      <c r="X23" s="14">
+      <c r="X23">
         <f>Schilthuis!M23/1000</f>
-        <v>207.80517734301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>207.68985609030003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>42094</v>
       </c>
@@ -18585,12 +18575,12 @@
       <c r="W24" s="7">
         <v>246.61799999999999</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X24">
         <f>Schilthuis!M24/1000</f>
-        <v>230.40814287417001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>230.29282162146004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>42124</v>
       </c>
@@ -18661,12 +18651,12 @@
       <c r="W25" s="7">
         <v>272.19400000000002</v>
       </c>
-      <c r="X25" s="14">
+      <c r="X25">
         <f>Schilthuis!M25/1000</f>
-        <v>254.29080230637001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>254.17548105366001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>42155</v>
       </c>
@@ -18737,12 +18727,12 @@
       <c r="W26" s="7">
         <v>300.84500000000003</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X26">
         <f>Schilthuis!M26/1000</f>
-        <v>281.04533293509002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>280.93001168237998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>42185</v>
       </c>
@@ -18813,12 +18803,12 @@
       <c r="W27" s="7">
         <v>330.48399999999998</v>
       </c>
-      <c r="X27" s="14">
+      <c r="X27">
         <f>Schilthuis!M27/1000</f>
-        <v>308.72243358549002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>308.60711233278005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>42216</v>
       </c>
@@ -18889,12 +18879,12 @@
       <c r="W28" s="7">
         <v>363.08699999999999</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X28">
         <f>Schilthuis!M28/1000</f>
-        <v>339.16724430093001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>339.05192304821998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>42247</v>
       </c>
@@ -18965,12 +18955,12 @@
       <c r="W29" s="7">
         <v>397.41899999999998</v>
       </c>
-      <c r="X29" s="14">
+      <c r="X29">
         <f>Schilthuis!M29/1000</f>
-        <v>371.22655255430999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>371.11123130160001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>42277</v>
       </c>
@@ -19041,12 +19031,12 @@
       <c r="W30" s="7">
         <v>432.07799999999997</v>
       </c>
-      <c r="X30" s="14">
+      <c r="X30">
         <f>Schilthuis!M30/1000</f>
-        <v>403.59090412131002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>403.47558286860004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>42308</v>
       </c>
@@ -19117,12 +19107,12 @@
       <c r="W31" s="7">
         <v>469.37400000000002</v>
       </c>
-      <c r="X31" s="14">
+      <c r="X31">
         <f>Schilthuis!M31/1000</f>
-        <v>438.41792243973003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>438.30260118702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>42338</v>
       </c>
@@ -19193,12 +19183,12 @@
       <c r="W32" s="7">
         <v>506.66199999999998</v>
       </c>
-      <c r="X32" s="14">
+      <c r="X32">
         <f>Schilthuis!M32/1000</f>
-        <v>473.23750067732999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>473.12217942462001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>42369</v>
       </c>
@@ -19269,12 +19259,12 @@
       <c r="W33" s="7">
         <v>546.18100000000004</v>
       </c>
-      <c r="X33" s="14">
+      <c r="X33">
         <f>Schilthuis!M33/1000</f>
-        <v>510.14030154453002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+        <v>510.02498029182004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>42400</v>
       </c>
@@ -19345,12 +19335,12 @@
       <c r="W34" s="7">
         <v>586.68700000000001</v>
       </c>
-      <c r="X34" s="14">
+      <c r="X34">
         <f>Schilthuis!M34/1000</f>
-        <v>547.96567243341008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+        <v>547.85035118070005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>42429</v>
       </c>
@@ -19421,12 +19411,12 @@
       <c r="W35" s="7">
         <v>625.505</v>
       </c>
-      <c r="X35" s="14">
+      <c r="X35">
         <f>Schilthuis!M35/1000</f>
-        <v>584.21374618845005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+        <v>584.09842493574001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>42460</v>
       </c>
@@ -19497,12 +19487,12 @@
       <c r="W36" s="7">
         <v>667.74099999999999</v>
       </c>
-      <c r="X36" s="14">
+      <c r="X36">
         <f>Schilthuis!M36/1000</f>
-        <v>623.65361461527004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+        <v>623.53829336256001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>42490</v>
       </c>
@@ -19573,12 +19563,12 @@
       <c r="W37" s="7">
         <v>709.09199999999998</v>
       </c>
-      <c r="X37" s="14">
+      <c r="X37">
         <f>Schilthuis!M37/1000</f>
-        <v>662.26763407107001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>662.15231281836009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42521</v>
       </c>
@@ -19649,12 +19639,12 @@
       <c r="W38" s="7">
         <v>752.31600000000003</v>
       </c>
-      <c r="X38" s="14">
+      <c r="X38">
         <f>Schilthuis!M38/1000</f>
-        <v>702.63007251957004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+        <v>702.51475126686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>42551</v>
       </c>
@@ -19725,12 +19715,12 @@
       <c r="W39" s="7">
         <v>794.62300000000005</v>
       </c>
-      <c r="X39" s="14">
+      <c r="X39">
         <f>Schilthuis!M39/1000</f>
-        <v>742.13690167377001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+        <v>742.02158042106009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>42582</v>
       </c>
@@ -19801,12 +19791,12 @@
       <c r="W40" s="7">
         <v>838.83500000000004</v>
       </c>
-      <c r="X40" s="14">
+      <c r="X40">
         <f>Schilthuis!M40/1000</f>
-        <v>783.42191014395007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+        <v>783.30658889124004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>42613</v>
       </c>
@@ -19877,12 +19867,12 @@
       <c r="W41" s="7">
         <v>883.54100000000005</v>
       </c>
-      <c r="X41" s="14">
+      <c r="X41">
         <f>Schilthuis!M41/1000</f>
-        <v>825.16820362497003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+        <v>825.05288237226011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>42643</v>
       </c>
@@ -19953,12 +19943,12 @@
       <c r="W42" s="7">
         <v>927.04300000000001</v>
       </c>
-      <c r="X42" s="14">
+      <c r="X42">
         <f>Schilthuis!M42/1000</f>
-        <v>865.79104490217003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+        <v>865.67572364946</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42674</v>
       </c>
@@ -20029,12 +20019,12 @@
       <c r="W43" s="7">
         <v>972.24300000000005</v>
       </c>
-      <c r="X43" s="14">
+      <c r="X43">
         <f>Schilthuis!M43/1000</f>
-        <v>907.99862339403001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+        <v>907.88330214132009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42704</v>
       </c>
@@ -20105,12 +20095,12 @@
       <c r="W44" s="7">
         <v>1016.22</v>
       </c>
-      <c r="X44" s="14">
+      <c r="X44">
         <f>Schilthuis!M44/1000</f>
-        <v>949.06786952043012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+        <v>948.95254826772009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42735</v>
       </c>
@@ -20181,12 +20171,12 @@
       <c r="W45" s="7">
         <v>1061.92</v>
       </c>
-      <c r="X45" s="14">
+      <c r="X45">
         <f>Schilthuis!M45/1000</f>
-        <v>991.73673302313011</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+        <v>991.62141177042008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42766</v>
       </c>
@@ -20257,12 +20247,12 @@
       <c r="W46" s="7">
         <v>1107.8599999999999</v>
       </c>
-      <c r="X46" s="14">
+      <c r="X46">
         <f>Schilthuis!M46/1000</f>
-        <v>1034.6362390312499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1034.52091777854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42794</v>
       </c>
@@ -20333,12 +20323,12 @@
       <c r="W47" s="7">
         <v>1149.3499999999999</v>
       </c>
-      <c r="X47" s="14">
+      <c r="X47">
         <f>Schilthuis!M47/1000</f>
-        <v>1073.3841799418099</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1073.2688586890999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>42825</v>
       </c>
@@ -20409,12 +20399,12 @@
       <c r="W48" s="7">
         <v>1195.54</v>
       </c>
-      <c r="X48" s="14">
+      <c r="X48">
         <f>Schilthuis!M48/1000</f>
-        <v>1116.5143284553501</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1116.39900720264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>42855</v>
       </c>
@@ -20485,12 +20475,12 @@
       <c r="W49" s="7">
         <v>1240.48</v>
       </c>
-      <c r="X49" s="14">
+      <c r="X49">
         <f>Schilthuis!M49/1000</f>
-        <v>1158.4763842801501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1158.3610630274402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>42886</v>
       </c>
@@ -20561,12 +20551,12 @@
       <c r="W50" s="7">
         <v>1286.9100000000001</v>
       </c>
-      <c r="X50" s="14">
+      <c r="X50">
         <f>Schilthuis!M50/1000</f>
-        <v>1201.8371752991102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1201.7218540464003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="W51" s="7"/>
     </row>
   </sheetData>
@@ -20583,47 +20573,47 @@
       <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -20706,7 +20696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -20762,7 +20752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="V10" t="s">
         <v>83</v>
       </c>
@@ -20782,7 +20772,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -20865,7 +20855,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -20948,7 +20938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>41455</v>
       </c>
@@ -21004,7 +20994,7 @@
         <v>5.3000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>41486</v>
       </c>
@@ -21084,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>41517</v>
       </c>
@@ -21164,7 +21154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>41547</v>
       </c>
@@ -21244,7 +21234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>41578</v>
       </c>
@@ -21324,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>41608</v>
       </c>
@@ -21404,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>41639</v>
       </c>
@@ -21484,7 +21474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>41670</v>
       </c>
@@ -21564,7 +21554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>41698</v>
       </c>
@@ -21644,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>41729</v>
       </c>
@@ -21724,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>41759</v>
       </c>
@@ -21804,7 +21794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>41790</v>
       </c>
@@ -21884,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>41820</v>
       </c>
@@ -21964,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>41851</v>
       </c>
@@ -22044,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>41882</v>
       </c>
@@ -22124,7 +22114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>41912</v>
       </c>
@@ -22204,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>41943</v>
       </c>
@@ -22284,7 +22274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>41973</v>
       </c>
@@ -22364,7 +22354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>42004</v>
       </c>
@@ -22444,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>42035</v>
       </c>
@@ -22524,7 +22514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>42063</v>
       </c>
@@ -22604,7 +22594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>42094</v>
       </c>
@@ -22684,7 +22674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>42124</v>
       </c>
@@ -22764,7 +22754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>42155</v>
       </c>
@@ -22844,7 +22834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>42185</v>
       </c>
@@ -22924,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42216</v>
       </c>
@@ -23004,7 +22994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>42247</v>
       </c>
@@ -23084,7 +23074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>42277</v>
       </c>
@@ -23164,7 +23154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>42308</v>
       </c>
@@ -23244,7 +23234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>42338</v>
       </c>
@@ -23324,7 +23314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42369</v>
       </c>
@@ -23404,7 +23394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42400</v>
       </c>
@@ -23484,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42429</v>
       </c>
@@ -23564,7 +23554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42460</v>
       </c>
@@ -23644,7 +23634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42490</v>
       </c>
@@ -23724,7 +23714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>42521</v>
       </c>
@@ -23804,7 +23794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>42551</v>
       </c>
@@ -23884,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>42582</v>
       </c>
@@ -23964,7 +23954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>42613</v>
       </c>
@@ -24044,7 +24034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>42643</v>
       </c>
@@ -24124,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>42674</v>
       </c>
@@ -24204,7 +24194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>42704</v>
       </c>
@@ -24284,7 +24274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>42735</v>
       </c>
@@ -24364,7 +24354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>42766</v>
       </c>
@@ -24444,7 +24434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>42794</v>
       </c>
@@ -24524,7 +24514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>42825</v>
       </c>
@@ -24604,7 +24594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>42855</v>
       </c>
@@ -24684,7 +24674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>42886</v>
       </c>
